--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2030546.905371312</v>
+        <v>2029919.862948384</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15146261.88862853</v>
+        <v>15146261.88862854</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736543</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7124812.25855093</v>
+        <v>7124812.258550928</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>119.5427432172653</v>
       </c>
       <c r="G11" t="n">
-        <v>47.68004525967284</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5829390575856</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663732561</v>
+        <v>4.260172663732996</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>36.72024109999236</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126513</v>
+        <v>118.0349185126517</v>
       </c>
       <c r="W11" t="n">
-        <v>143.3350179906082</v>
+        <v>143.3350179906086</v>
       </c>
       <c r="X11" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335311365</v>
+        <v>0.7169426335315628</v>
       </c>
       <c r="V12" t="n">
-        <v>10.5371034757826</v>
+        <v>10.53710347578303</v>
       </c>
       <c r="W12" t="n">
-        <v>23.32814722865629</v>
+        <v>23.32814722865672</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563915</v>
+        <v>14.27407766563958</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155449</v>
+        <v>68.73102716155492</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679485</v>
+        <v>42.55338854679528</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740811</v>
+        <v>67.72027461740853</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321123</v>
+        <v>13.36537661321165</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369278912</v>
+        <v>4.240244369279338</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="C14" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="F14" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.260172663732911</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999193</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>92.27289856292381</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>124.732966999183</v>
       </c>
       <c r="X14" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7169426335311365</v>
+        <v>0.7169426335314776</v>
       </c>
       <c r="V15" t="n">
-        <v>10.5371034757826</v>
+        <v>10.53710347578294</v>
       </c>
       <c r="W15" t="n">
-        <v>23.32814722865629</v>
+        <v>23.32814722865663</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.27407766563915</v>
+        <v>14.27407766563949</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73102716155449</v>
+        <v>68.73102716155483</v>
       </c>
       <c r="V16" t="n">
-        <v>42.55338854679485</v>
+        <v>42.55338854679519</v>
       </c>
       <c r="W16" t="n">
-        <v>67.72027461740811</v>
+        <v>67.72027461740845</v>
       </c>
       <c r="X16" t="n">
-        <v>13.36537661321123</v>
+        <v>13.36537661321157</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.240244369278912</v>
+        <v>4.240244369279253</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.94560221488545</v>
+        <v>65.94560221488655</v>
       </c>
       <c r="C17" t="n">
         <v>53.95691917256829</v>
@@ -1856,7 +1856,7 @@
         <v>85.85217687497897</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256149</v>
+        <v>87.2644576125615</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>54.05233716576919</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.44893496196795</v>
+        <v>65.44893496196852</v>
       </c>
     </row>
     <row r="18">
@@ -2093,7 +2093,7 @@
         <v>85.85217687497897</v>
       </c>
       <c r="G20" t="n">
-        <v>87.26445761256149</v>
+        <v>87.2644576125615</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>85.85217687497897</v>
       </c>
       <c r="G23" t="n">
-        <v>87.2644576125615</v>
+        <v>87.26445761256149</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>216.6184134117433</v>
+        <v>216.6184134117434</v>
       </c>
       <c r="C26" t="n">
         <v>204.6297303694251</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>46.35004480300373</v>
+        <v>46.35004480300376</v>
       </c>
       <c r="U26" t="n">
-        <v>78.8101132392631</v>
+        <v>78.81011323926313</v>
       </c>
       <c r="V26" t="n">
         <v>160.1247906519225</v>
@@ -2621,7 +2621,7 @@
         <v>204.725148362626</v>
       </c>
       <c r="Y26" t="n">
-        <v>216.1217461588247</v>
+        <v>216.1217461588248</v>
       </c>
     </row>
     <row r="27">
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>12.18999306596231</v>
+        <v>12.18999306596234</v>
       </c>
       <c r="U27" t="n">
-        <v>42.8068147728023</v>
+        <v>42.80681477280233</v>
       </c>
       <c r="V27" t="n">
-        <v>52.62697561505377</v>
+        <v>52.62697561505379</v>
       </c>
       <c r="W27" t="n">
-        <v>65.41801936792746</v>
+        <v>65.41801936792749</v>
       </c>
       <c r="X27" t="n">
-        <v>22.45312752988775</v>
+        <v>22.45312752988778</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.11142237582135</v>
+        <v>17.11142237582138</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.235124286440424</v>
+        <v>8.235124286440453</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.0152745728348</v>
+        <v>34.01527457283483</v>
       </c>
       <c r="T28" t="n">
-        <v>56.36394980491032</v>
+        <v>56.36394980491035</v>
       </c>
       <c r="U28" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V28" t="n">
-        <v>84.64326068606601</v>
+        <v>84.64326068606604</v>
       </c>
       <c r="W28" t="n">
         <v>109.8101467566793</v>
       </c>
       <c r="X28" t="n">
-        <v>55.45524875248239</v>
+        <v>55.45524875248242</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.33011650855008</v>
+        <v>46.33011650855011</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>216.6184134117433</v>
+        <v>216.6184134117434</v>
       </c>
       <c r="C29" t="n">
-        <v>204.6297303694251</v>
+        <v>204.6297303694252</v>
       </c>
       <c r="D29" t="n">
         <v>195.6110344139531</v>
       </c>
       <c r="E29" t="n">
-        <v>217.3531719838586</v>
+        <v>217.3531719838587</v>
       </c>
       <c r="F29" t="n">
         <v>236.5249880718358</v>
       </c>
       <c r="G29" t="n">
-        <v>237.9372688094183</v>
+        <v>237.9372688094184</v>
       </c>
       <c r="H29" t="n">
         <v>150.6728111968569</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.35004480300373</v>
+        <v>46.35004480300382</v>
       </c>
       <c r="U29" t="n">
-        <v>78.8101132392631</v>
+        <v>78.81011323926319</v>
       </c>
       <c r="V29" t="n">
-        <v>160.1247906519225</v>
+        <v>160.1247906519226</v>
       </c>
       <c r="W29" t="n">
-        <v>185.4248901298794</v>
+        <v>185.4248901298795</v>
       </c>
       <c r="X29" t="n">
-        <v>204.725148362626</v>
+        <v>204.7251483626261</v>
       </c>
       <c r="Y29" t="n">
-        <v>216.1217461588247</v>
+        <v>216.1217461588248</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>12.18999306596231</v>
+        <v>12.1899930659624</v>
       </c>
       <c r="U30" t="n">
-        <v>42.8068147728023</v>
+        <v>42.80681477280239</v>
       </c>
       <c r="V30" t="n">
-        <v>52.62697561505377</v>
+        <v>52.62697561505385</v>
       </c>
       <c r="W30" t="n">
-        <v>65.41801936792746</v>
+        <v>65.41801936792754</v>
       </c>
       <c r="X30" t="n">
-        <v>22.45312752988775</v>
+        <v>22.45312752988784</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.11142237582135</v>
+        <v>17.11142237582143</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.235124286440424</v>
+        <v>8.235124286440509</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.0152745728348</v>
+        <v>34.01527457283488</v>
       </c>
       <c r="T31" t="n">
-        <v>56.36394980491032</v>
+        <v>56.3639498049104</v>
       </c>
       <c r="U31" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V31" t="n">
-        <v>84.64326068606601</v>
+        <v>84.6432606860661</v>
       </c>
       <c r="W31" t="n">
-        <v>109.8101467566793</v>
+        <v>109.8101467566794</v>
       </c>
       <c r="X31" t="n">
-        <v>55.45524875248239</v>
+        <v>55.45524875248248</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.33011650855008</v>
+        <v>46.33011650855016</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>216.6184134117433</v>
+        <v>216.6184134117435</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6297303694251</v>
+        <v>204.6297303694252</v>
       </c>
       <c r="D32" t="n">
-        <v>195.6110344139531</v>
+        <v>195.6110344139532</v>
       </c>
       <c r="E32" t="n">
-        <v>217.3531719838586</v>
+        <v>217.3531719838587</v>
       </c>
       <c r="F32" t="n">
-        <v>236.5249880718358</v>
+        <v>236.5249880718359</v>
       </c>
       <c r="G32" t="n">
-        <v>237.9372688094183</v>
+        <v>237.9372688094184</v>
       </c>
       <c r="H32" t="n">
-        <v>150.6728111968568</v>
+        <v>150.6728111968569</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300375</v>
+        <v>46.35004480300387</v>
       </c>
       <c r="U32" t="n">
-        <v>78.8101132392631</v>
+        <v>78.81011323926325</v>
       </c>
       <c r="V32" t="n">
-        <v>160.1247906519225</v>
+        <v>160.1247906519226</v>
       </c>
       <c r="W32" t="n">
-        <v>185.4248901298794</v>
+        <v>185.4248901298795</v>
       </c>
       <c r="X32" t="n">
-        <v>204.725148362626</v>
+        <v>204.7251483626261</v>
       </c>
       <c r="Y32" t="n">
-        <v>216.1217461588247</v>
+        <v>216.1217461588249</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.18999306596232</v>
+        <v>12.18999306596245</v>
       </c>
       <c r="U33" t="n">
-        <v>42.8068147728023</v>
+        <v>42.80681477280245</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505377</v>
+        <v>52.62697561505391</v>
       </c>
       <c r="W33" t="n">
-        <v>65.41801936792746</v>
+        <v>65.4180193679276</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988775</v>
+        <v>22.45312752988789</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582135</v>
+        <v>17.11142237582149</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440424</v>
+        <v>8.235124286440566</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.01527457283481</v>
+        <v>34.01527457283494</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491032</v>
+        <v>56.36394980491046</v>
       </c>
       <c r="U34" t="n">
-        <v>110.8208993008257</v>
+        <v>110.8208993008258</v>
       </c>
       <c r="V34" t="n">
-        <v>84.64326068606601</v>
+        <v>84.64326068606616</v>
       </c>
       <c r="W34" t="n">
-        <v>109.8101467566793</v>
+        <v>109.8101467566794</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248239</v>
+        <v>55.45524875248253</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855008</v>
+        <v>46.33011650855022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.8997156890575</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C35" t="n">
-        <v>160.9110326467392</v>
+        <v>160.9110326467391</v>
       </c>
       <c r="D35" t="n">
-        <v>151.8923366912672</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E35" t="n">
-        <v>173.6344742611728</v>
+        <v>173.6344742611726</v>
       </c>
       <c r="F35" t="n">
-        <v>192.8062903491499</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G35" t="n">
-        <v>194.2185710867325</v>
+        <v>194.2185710867323</v>
       </c>
       <c r="H35" t="n">
-        <v>106.954113474171</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.631347080317909</v>
+        <v>2.63134708031771</v>
       </c>
       <c r="U35" t="n">
-        <v>35.09141551657726</v>
+        <v>35.09141551657709</v>
       </c>
       <c r="V35" t="n">
-        <v>116.4060929292366</v>
+        <v>116.4060929292365</v>
       </c>
       <c r="W35" t="n">
-        <v>141.7061924071935</v>
+        <v>141.7061924071934</v>
       </c>
       <c r="X35" t="n">
-        <v>161.0064506399401</v>
+        <v>161.00645063994</v>
       </c>
       <c r="Y35" t="n">
-        <v>172.4030484361389</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="36">
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.90827789236792</v>
+        <v>8.908277892367749</v>
       </c>
       <c r="W36" t="n">
-        <v>21.69932164524161</v>
+        <v>21.69932164524144</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.64525208222447</v>
+        <v>12.6452520822243</v>
       </c>
       <c r="U37" t="n">
-        <v>67.10220157813981</v>
+        <v>67.10220157813964</v>
       </c>
       <c r="V37" t="n">
-        <v>40.92456296338017</v>
+        <v>40.92456296338</v>
       </c>
       <c r="W37" t="n">
-        <v>66.09144903399343</v>
+        <v>66.09144903399326</v>
       </c>
       <c r="X37" t="n">
-        <v>11.73655102979654</v>
+        <v>11.73655102979637</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.611418785864231</v>
+        <v>2.611418785864061</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.631347080317738</v>
+        <v>2.631347080317719</v>
       </c>
       <c r="U38" t="n">
-        <v>35.09141551657709</v>
+        <v>35.09141551657708</v>
       </c>
       <c r="V38" t="n">
         <v>116.4060929292365</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890575</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C41" t="n">
-        <v>160.9110326467392</v>
+        <v>160.9110326467391</v>
       </c>
       <c r="D41" t="n">
-        <v>151.8923366912672</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E41" t="n">
-        <v>173.6344742611728</v>
+        <v>173.6344742611726</v>
       </c>
       <c r="F41" t="n">
-        <v>192.8062903491499</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G41" t="n">
-        <v>194.2185710867325</v>
+        <v>194.2185710867323</v>
       </c>
       <c r="H41" t="n">
-        <v>106.954113474171</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317896</v>
+        <v>2.631347080317719</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657725</v>
+        <v>35.09141551657708</v>
       </c>
       <c r="V41" t="n">
-        <v>116.4060929292366</v>
+        <v>116.4060929292365</v>
       </c>
       <c r="W41" t="n">
-        <v>141.7061924071935</v>
+        <v>141.7061924071934</v>
       </c>
       <c r="X41" t="n">
-        <v>161.0064506399401</v>
+        <v>161.00645063994</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361389</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.90827789236792</v>
+        <v>8.908277892367749</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524161</v>
+        <v>21.69932164524144</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.64525208222447</v>
+        <v>12.6452520822243</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813981</v>
+        <v>67.10220157813964</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296338017</v>
+        <v>40.92456296338</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399343</v>
+        <v>66.09144903399326</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979654</v>
+        <v>11.73655102979637</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785864231</v>
+        <v>2.611418785864061</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8997156890575</v>
+        <v>172.8997156890574</v>
       </c>
       <c r="C44" t="n">
-        <v>160.9110326467392</v>
+        <v>160.9110326467391</v>
       </c>
       <c r="D44" t="n">
-        <v>151.8923366912672</v>
+        <v>151.8923366912671</v>
       </c>
       <c r="E44" t="n">
-        <v>173.6344742611719</v>
+        <v>173.6344742611726</v>
       </c>
       <c r="F44" t="n">
-        <v>192.8062903491499</v>
+        <v>192.8062903491498</v>
       </c>
       <c r="G44" t="n">
-        <v>194.2185710867325</v>
+        <v>194.2185710867323</v>
       </c>
       <c r="H44" t="n">
-        <v>106.954113474171</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317896</v>
+        <v>2.631347080317776</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657725</v>
+        <v>35.09141551657714</v>
       </c>
       <c r="V44" t="n">
-        <v>116.4060929292366</v>
+        <v>116.4060929292365</v>
       </c>
       <c r="W44" t="n">
-        <v>141.7061924071935</v>
+        <v>141.7061924071934</v>
       </c>
       <c r="X44" t="n">
-        <v>161.0064506399401</v>
+        <v>161.00645063994</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.4030484361389</v>
+        <v>172.4030484361388</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.90827789236792</v>
+        <v>8.908277892367806</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524161</v>
+        <v>21.6993216452415</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.64525208222447</v>
+        <v>12.64525208222436</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813981</v>
+        <v>67.1022015781397</v>
       </c>
       <c r="V46" t="n">
-        <v>40.92456296338017</v>
+        <v>40.92456296338005</v>
       </c>
       <c r="W46" t="n">
-        <v>66.09144903399343</v>
+        <v>66.09144903399331</v>
       </c>
       <c r="X46" t="n">
-        <v>11.73655102979654</v>
+        <v>11.73655102979643</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785864231</v>
+        <v>2.611418785864117</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.5573964531145</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="C11" t="n">
-        <v>169.5573964531145</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="D11" t="n">
-        <v>169.5573964531145</v>
+        <v>132.4662438268589</v>
       </c>
       <c r="E11" t="n">
-        <v>169.5573964531145</v>
+        <v>132.4662438268589</v>
       </c>
       <c r="F11" t="n">
-        <v>169.5573964531145</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G11" t="n">
-        <v>121.3957345746571</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H11" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I11" t="n">
-        <v>75.64118274439178</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J11" t="n">
-        <v>187.2071531304971</v>
+        <v>78.30979834912326</v>
       </c>
       <c r="K11" t="n">
-        <v>289.2000016472165</v>
+        <v>78.30979834912326</v>
       </c>
       <c r="L11" t="n">
-        <v>394.3677332417826</v>
+        <v>183.4775299436889</v>
       </c>
       <c r="M11" t="n">
-        <v>470.5636686589086</v>
+        <v>302.177574577317</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5636686589086</v>
+        <v>423.0936897528413</v>
       </c>
       <c r="O11" t="n">
-        <v>585.7999076426695</v>
+        <v>423.0936897528413</v>
       </c>
       <c r="P11" t="n">
-        <v>585.7999076426695</v>
+        <v>423.0936897528413</v>
       </c>
       <c r="Q11" t="n">
-        <v>585.7999076426695</v>
+        <v>513.3935123175438</v>
       </c>
       <c r="R11" t="n">
-        <v>585.7999076426695</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="S11" t="n">
-        <v>585.7999076426695</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="T11" t="n">
-        <v>581.4967029318285</v>
+        <v>581.4967029318291</v>
       </c>
       <c r="U11" t="n">
-        <v>581.4967029318285</v>
+        <v>544.4055503055741</v>
       </c>
       <c r="V11" t="n">
-        <v>462.269512515009</v>
+        <v>425.1783598887542</v>
       </c>
       <c r="W11" t="n">
-        <v>317.4866660598492</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="X11" t="n">
-        <v>169.5573964531145</v>
+        <v>280.3955134335939</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.5573964531145</v>
+        <v>280.3955134335939</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="F12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="G12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="H12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="I12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="J12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="K12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="L12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="M12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="N12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="O12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673106</v>
+        <v>45.92332209673194</v>
       </c>
       <c r="V12" t="n">
-        <v>35.27978323230419</v>
+        <v>35.27978323230464</v>
       </c>
       <c r="W12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="X12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C13" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D13" t="n">
-        <v>11.71599815285339</v>
+        <v>75.10905287660634</v>
       </c>
       <c r="E13" t="n">
-        <v>11.71599815285339</v>
+        <v>139.5438352431376</v>
       </c>
       <c r="F13" t="n">
-        <v>11.71599815285339</v>
+        <v>139.5438352431376</v>
       </c>
       <c r="G13" t="n">
-        <v>11.71599815285339</v>
+        <v>139.5438352431376</v>
       </c>
       <c r="H13" t="n">
-        <v>11.71599815285339</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="I13" t="n">
-        <v>11.71599815285339</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="J13" t="n">
-        <v>11.71599815285339</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="K13" t="n">
-        <v>11.71599815285339</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="L13" t="n">
-        <v>11.71599815285339</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="M13" t="n">
-        <v>94.11474597412817</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="N13" t="n">
-        <v>94.11474597412817</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="O13" t="n">
-        <v>94.11474597412817</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="P13" t="n">
-        <v>224.7305324699107</v>
+        <v>198.8185230356452</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.7305324699107</v>
+        <v>224.7305324699133</v>
       </c>
       <c r="R13" t="n">
-        <v>224.7305324699107</v>
+        <v>224.7305324699133</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699107</v>
+        <v>224.7305324699133</v>
       </c>
       <c r="T13" t="n">
-        <v>210.3122722015883</v>
+        <v>210.3122722015905</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8869922404222</v>
+        <v>140.8869922404239</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608395</v>
+        <v>97.90377148608526</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072222</v>
+        <v>29.4994536907231</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333714</v>
+        <v>15.99907327333759</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.5745373663228</v>
+        <v>307.5745373663233</v>
       </c>
       <c r="C14" t="n">
-        <v>159.6452677595881</v>
+        <v>307.5745373663233</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6452677595881</v>
+        <v>307.5745373663233</v>
       </c>
       <c r="E14" t="n">
-        <v>159.6452677595881</v>
+        <v>159.6452677595884</v>
       </c>
       <c r="F14" t="n">
-        <v>11.71599815285339</v>
+        <v>159.6452677595884</v>
       </c>
       <c r="G14" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H14" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I14" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J14" t="n">
-        <v>123.2819685389588</v>
+        <v>123.2819685389584</v>
       </c>
       <c r="K14" t="n">
-        <v>123.2819685389588</v>
+        <v>225.2748170556775</v>
       </c>
       <c r="L14" t="n">
-        <v>228.4497001335248</v>
+        <v>302.1775745773167</v>
       </c>
       <c r="M14" t="n">
-        <v>327.3045002090594</v>
+        <v>302.1775745773167</v>
       </c>
       <c r="N14" t="n">
-        <v>327.3045002090594</v>
+        <v>423.0936897528411</v>
       </c>
       <c r="O14" t="n">
-        <v>442.5407391928203</v>
+        <v>423.0936897528411</v>
       </c>
       <c r="P14" t="n">
-        <v>544.130934224791</v>
+        <v>423.0936897528411</v>
       </c>
       <c r="Q14" t="n">
-        <v>544.130934224791</v>
+        <v>513.3935123175437</v>
       </c>
       <c r="R14" t="n">
-        <v>544.130934224791</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="S14" t="n">
-        <v>585.7999076426695</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="T14" t="n">
-        <v>585.7999076426695</v>
+        <v>581.496702931829</v>
       </c>
       <c r="U14" t="n">
-        <v>548.7087550164149</v>
+        <v>581.496702931829</v>
       </c>
       <c r="V14" t="n">
-        <v>455.5038069730575</v>
+        <v>581.496702931829</v>
       </c>
       <c r="W14" t="n">
-        <v>455.5038069730575</v>
+        <v>455.5038069730582</v>
       </c>
       <c r="X14" t="n">
-        <v>307.5745373663228</v>
+        <v>455.5038069730582</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.5745373663228</v>
+        <v>455.5038069730582</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N15" t="n">
-        <v>46.64750657504534</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="O15" t="n">
-        <v>46.64750657504534</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="P15" t="n">
-        <v>46.64750657504534</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="R15" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="S15" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="T15" t="n">
-        <v>46.64750657504534</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673106</v>
+        <v>45.92332209673177</v>
       </c>
       <c r="V15" t="n">
-        <v>35.27978323230419</v>
+        <v>35.27978323230455</v>
       </c>
       <c r="W15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="X15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9778818117795</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D16" t="n">
-        <v>20.9778818117795</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E16" t="n">
-        <v>85.41266417831119</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F16" t="n">
-        <v>85.41266417831119</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G16" t="n">
-        <v>85.41266417831119</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H16" t="n">
-        <v>85.41266417831119</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I16" t="n">
-        <v>85.41266417831119</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J16" t="n">
-        <v>85.41266417831119</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K16" t="n">
-        <v>85.41266417831119</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L16" t="n">
-        <v>224.7305324699107</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M16" t="n">
-        <v>224.7305324699107</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N16" t="n">
-        <v>224.7305324699107</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="O16" t="n">
-        <v>224.7305324699107</v>
+        <v>146.4655124673205</v>
       </c>
       <c r="P16" t="n">
-        <v>224.7305324699107</v>
+        <v>146.4655124673205</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.7305324699107</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="R16" t="n">
-        <v>224.7305324699107</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699107</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="T16" t="n">
-        <v>210.3122722015883</v>
+        <v>210.3122722015901</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8869922404222</v>
+        <v>140.8869922404236</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608395</v>
+        <v>97.90377148608499</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49945369072222</v>
+        <v>29.49945369072292</v>
       </c>
       <c r="X16" t="n">
-        <v>15.99907327333714</v>
+        <v>15.9990732733375</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.8292685207391</v>
+        <v>353.8292685207389</v>
       </c>
       <c r="C17" t="n">
-        <v>299.3273299625893</v>
+        <v>299.3273299625891</v>
       </c>
       <c r="D17" t="n">
-        <v>253.9351852988557</v>
+        <v>253.9351852988556</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140052</v>
+        <v>186.5812855140053</v>
       </c>
       <c r="F17" t="n">
-        <v>99.86191493321853</v>
+        <v>99.86191493321849</v>
       </c>
       <c r="G17" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H17" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I17" t="n">
-        <v>156.7014752944141</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7014752944141</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K17" t="n">
-        <v>224.6848823815303</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L17" t="n">
-        <v>224.6848823815303</v>
+        <v>150.8434762179876</v>
       </c>
       <c r="M17" t="n">
-        <v>224.6848823815303</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="N17" t="n">
-        <v>369.670359523091</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="O17" t="n">
-        <v>369.670359523091</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="P17" t="n">
-        <v>369.670359523091</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="Q17" t="n">
-        <v>369.670359523091</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="R17" t="n">
-        <v>514.6558366646517</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="S17" t="n">
-        <v>514.6558366646517</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="T17" t="n">
-        <v>514.6558366646517</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="U17" t="n">
-        <v>585.7999076426695</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="V17" t="n">
-        <v>576.2524536476537</v>
+        <v>576.2524536476546</v>
       </c>
       <c r="W17" t="n">
-        <v>541.1493436142975</v>
+        <v>541.1493436142985</v>
       </c>
       <c r="X17" t="n">
-        <v>486.5510232448337</v>
+        <v>486.5510232448347</v>
       </c>
       <c r="Y17" t="n">
-        <v>420.4409879297145</v>
+        <v>420.4409879297152</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="O18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="P18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="R18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="S18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="T18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="U18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="V18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="W18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="X18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="O19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="P19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="R19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="S19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="T19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="U19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="V19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="W19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="X19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207387</v>
+        <v>353.8292685207392</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625887</v>
+        <v>299.3273299625894</v>
       </c>
       <c r="D20" t="n">
-        <v>253.9351852988551</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140048</v>
+        <v>186.5812855140055</v>
       </c>
       <c r="F20" t="n">
-        <v>99.86191493321803</v>
+        <v>99.86191493321857</v>
       </c>
       <c r="G20" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H20" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I20" t="n">
-        <v>156.7014752944141</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J20" t="n">
-        <v>192.5494146296336</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="K20" t="n">
-        <v>192.5494146296336</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="L20" t="n">
-        <v>192.5494146296336</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="M20" t="n">
-        <v>192.5494146296336</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="N20" t="n">
-        <v>337.5348917711943</v>
+        <v>301.6869524359753</v>
       </c>
       <c r="O20" t="n">
-        <v>337.5348917711943</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="P20" t="n">
-        <v>337.5348917711943</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="Q20" t="n">
-        <v>337.5348917711943</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="R20" t="n">
-        <v>337.5348917711943</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="S20" t="n">
-        <v>482.520368912755</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="T20" t="n">
-        <v>585.7999076426695</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="U20" t="n">
-        <v>585.7999076426695</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="V20" t="n">
-        <v>576.252453647654</v>
+        <v>576.2524536476546</v>
       </c>
       <c r="W20" t="n">
-        <v>541.149343614298</v>
+        <v>541.1493436142985</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448341</v>
+        <v>486.5510232448346</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.440987929715</v>
+        <v>420.4409879297154</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="O21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="P21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="S21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="T21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="U21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="V21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="W21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="X21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="O22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="P22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="R22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="S22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="T22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="U22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="V22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="W22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="X22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.8292685207392</v>
+        <v>353.8292685207391</v>
       </c>
       <c r="C23" t="n">
-        <v>299.3273299625894</v>
+        <v>299.3273299625893</v>
       </c>
       <c r="D23" t="n">
-        <v>253.9351852988558</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E23" t="n">
-        <v>186.5812855140055</v>
+        <v>186.5812855140054</v>
       </c>
       <c r="F23" t="n">
-        <v>99.86191493321857</v>
+        <v>99.86191493321854</v>
       </c>
       <c r="G23" t="n">
         <v>11.71599815285341</v>
@@ -5987,40 +5987,40 @@
         <v>11.71599815285341</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7014752944143</v>
+        <v>79.69940523996996</v>
       </c>
       <c r="K23" t="n">
-        <v>224.6848823815308</v>
+        <v>79.69940523996996</v>
       </c>
       <c r="L23" t="n">
-        <v>224.6848823815308</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="M23" t="n">
-        <v>224.6848823815308</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="N23" t="n">
-        <v>224.6848823815308</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="O23" t="n">
-        <v>369.6703595230917</v>
+        <v>369.6703595230918</v>
       </c>
       <c r="P23" t="n">
-        <v>514.6558366646526</v>
+        <v>369.6703595230918</v>
       </c>
       <c r="Q23" t="n">
-        <v>514.6558366646526</v>
+        <v>369.6703595230918</v>
       </c>
       <c r="R23" t="n">
-        <v>514.6558366646526</v>
+        <v>369.6703595230918</v>
       </c>
       <c r="S23" t="n">
-        <v>514.6558366646526</v>
+        <v>514.6558366646527</v>
       </c>
       <c r="T23" t="n">
-        <v>514.6558366646526</v>
+        <v>514.6558366646527</v>
       </c>
       <c r="U23" t="n">
-        <v>585.7999076426704</v>
+        <v>585.7999076426705</v>
       </c>
       <c r="V23" t="n">
         <v>576.2524536476546</v>
@@ -6029,10 +6029,10 @@
         <v>541.1493436142985</v>
       </c>
       <c r="X23" t="n">
-        <v>486.5510232448347</v>
+        <v>486.5510232448346</v>
       </c>
       <c r="Y23" t="n">
-        <v>420.4409879297155</v>
+        <v>420.4409879297154</v>
       </c>
     </row>
     <row r="24">
@@ -6206,13 +6206,13 @@
         <v>1097.04738406355</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151126</v>
+        <v>899.4604806151124</v>
       </c>
       <c r="E26" t="n">
-        <v>679.9118220455587</v>
+        <v>679.9118220455584</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800682</v>
+        <v>440.9976926800679</v>
       </c>
       <c r="G26" t="n">
         <v>200.6570171149989</v>
@@ -6224,28 +6224,28 @@
         <v>48.46225833029501</v>
       </c>
       <c r="J26" t="n">
-        <v>118.3592552985219</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K26" t="n">
-        <v>595.8582763764517</v>
+        <v>400.791101335391</v>
       </c>
       <c r="L26" t="n">
-        <v>659.3570345531393</v>
+        <v>400.791101335391</v>
       </c>
       <c r="M26" t="n">
-        <v>1109.604972504177</v>
+        <v>477.8221725511411</v>
       </c>
       <c r="N26" t="n">
-        <v>1709.325419341577</v>
+        <v>948.1849622230262</v>
       </c>
       <c r="O26" t="n">
-        <v>2272.982518192613</v>
+        <v>1511.842061074062</v>
       </c>
       <c r="P26" t="n">
-        <v>2272.982518192613</v>
+        <v>1985.918220104852</v>
       </c>
       <c r="Q26" t="n">
-        <v>2423.11291651475</v>
+        <v>2307.798462230974</v>
       </c>
       <c r="R26" t="n">
         <v>2423.11291651475</v>
@@ -6263,7 +6263,7 @@
         <v>2134.946301672135</v>
       </c>
       <c r="W26" t="n">
-        <v>1947.648432854074</v>
+        <v>1947.648432854075</v>
       </c>
       <c r="X26" t="n">
         <v>1740.855353699907</v>
@@ -6297,55 +6297,55 @@
         <v>48.46225833029501</v>
       </c>
       <c r="H27" t="n">
-        <v>124.9282506876108</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I27" t="n">
-        <v>124.9282506876108</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J27" t="n">
-        <v>124.9282506876108</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K27" t="n">
-        <v>263.2161499741889</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="L27" t="n">
-        <v>263.2161499741889</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="M27" t="n">
-        <v>263.2161499741889</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="N27" t="n">
-        <v>263.2161499741889</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="O27" t="n">
-        <v>263.2161499741889</v>
+        <v>263.216149974189</v>
       </c>
       <c r="P27" t="n">
-        <v>263.2161499741889</v>
+        <v>263.216149974189</v>
       </c>
       <c r="Q27" t="n">
-        <v>263.2161499741889</v>
+        <v>263.216149974189</v>
       </c>
       <c r="R27" t="n">
-        <v>263.2161499741889</v>
+        <v>263.216149974189</v>
       </c>
       <c r="S27" t="n">
-        <v>263.2161499741889</v>
+        <v>263.216149974189</v>
       </c>
       <c r="T27" t="n">
-        <v>250.9030256651361</v>
+        <v>250.9030256651362</v>
       </c>
       <c r="U27" t="n">
-        <v>207.6638188239216</v>
+        <v>207.6638188239217</v>
       </c>
       <c r="V27" t="n">
         <v>154.5052575965946</v>
       </c>
       <c r="W27" t="n">
-        <v>88.4264501542436</v>
+        <v>88.42645015424365</v>
       </c>
       <c r="X27" t="n">
-        <v>65.74652335637718</v>
+        <v>65.74652335637721</v>
       </c>
       <c r="Y27" t="n">
         <v>48.46225833029501</v>
@@ -6370,64 +6370,64 @@
         <v>48.46225833029501</v>
       </c>
       <c r="F28" t="n">
-        <v>54.96255685281312</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G28" t="n">
-        <v>54.96255685281312</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H28" t="n">
-        <v>54.96255685281312</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I28" t="n">
-        <v>54.96255685281312</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J28" t="n">
-        <v>54.96255685281312</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K28" t="n">
-        <v>54.96255685281312</v>
+        <v>143.31688052372</v>
       </c>
       <c r="L28" t="n">
-        <v>361.7163926105147</v>
+        <v>240.9657753974411</v>
       </c>
       <c r="M28" t="n">
-        <v>361.7163926105147</v>
+        <v>240.9657753974411</v>
       </c>
       <c r="N28" t="n">
-        <v>466.1635564930889</v>
+        <v>240.9657753974411</v>
       </c>
       <c r="O28" t="n">
-        <v>559.2440973896779</v>
+        <v>523.6377675245907</v>
       </c>
       <c r="P28" t="n">
-        <v>559.2440973896779</v>
+        <v>523.6377675245907</v>
       </c>
       <c r="Q28" t="n">
-        <v>559.2440973896779</v>
+        <v>523.6377675245907</v>
       </c>
       <c r="R28" t="n">
-        <v>559.2440973896779</v>
+        <v>559.244097389678</v>
       </c>
       <c r="S28" t="n">
-        <v>524.8852341847943</v>
+        <v>524.8852341847944</v>
       </c>
       <c r="T28" t="n">
-        <v>467.9519515535717</v>
+        <v>467.9519515535718</v>
       </c>
       <c r="U28" t="n">
-        <v>356.0116492295053</v>
+        <v>356.0116492295055</v>
       </c>
       <c r="V28" t="n">
-        <v>270.5134061122669</v>
+        <v>270.513406112267</v>
       </c>
       <c r="W28" t="n">
-        <v>159.594065954005</v>
+        <v>159.5940659540051</v>
       </c>
       <c r="X28" t="n">
         <v>103.5786631737198</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.78056569033584</v>
+        <v>56.78056569033587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.744081406405</v>
+        <v>1303.744081406404</v>
       </c>
       <c r="C29" t="n">
-        <v>1097.047384063551</v>
+        <v>1097.04738406355</v>
       </c>
       <c r="D29" t="n">
-        <v>899.4604806151134</v>
+        <v>899.4604806151131</v>
       </c>
       <c r="E29" t="n">
-        <v>679.9118220455592</v>
+        <v>679.9118220455589</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800686</v>
+        <v>440.9976926800682</v>
       </c>
       <c r="G29" t="n">
         <v>200.657017114999</v>
@@ -6461,37 +6461,37 @@
         <v>48.46225833029501</v>
       </c>
       <c r="J29" t="n">
-        <v>164.2367552209962</v>
+        <v>335.9865990249808</v>
       </c>
       <c r="K29" t="n">
-        <v>555.8037495606502</v>
+        <v>813.4856201029106</v>
       </c>
       <c r="L29" t="n">
-        <v>1155.524196398051</v>
+        <v>1413.206066940311</v>
       </c>
       <c r="M29" t="n">
-        <v>1232.555267613801</v>
+        <v>1413.206066940311</v>
       </c>
       <c r="N29" t="n">
-        <v>1385.379658632924</v>
+        <v>1413.206066940311</v>
       </c>
       <c r="O29" t="n">
-        <v>1949.03675748396</v>
+        <v>1683.591904878047</v>
       </c>
       <c r="P29" t="n">
-        <v>2423.11291651475</v>
+        <v>1985.918220104852</v>
       </c>
       <c r="Q29" t="n">
-        <v>2423.11291651475</v>
+        <v>2307.798462230974</v>
       </c>
       <c r="R29" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="S29" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="T29" t="n">
-        <v>2376.294689441009</v>
+        <v>2376.29468944101</v>
       </c>
       <c r="U29" t="n">
         <v>2296.688514451855</v>
@@ -6503,10 +6503,10 @@
         <v>1947.648432854075</v>
       </c>
       <c r="X29" t="n">
-        <v>1740.855353699908</v>
+        <v>1740.855353699907</v>
       </c>
       <c r="Y29" t="n">
-        <v>1522.550559600085</v>
+        <v>1522.550559600084</v>
       </c>
     </row>
     <row r="30">
@@ -6528,61 +6528,61 @@
         <v>48.46225833029501</v>
       </c>
       <c r="F30" t="n">
-        <v>48.46225833029501</v>
+        <v>59.4060951036091</v>
       </c>
       <c r="G30" t="n">
-        <v>48.46225833029501</v>
+        <v>59.4060951036091</v>
       </c>
       <c r="H30" t="n">
-        <v>48.46225833029501</v>
+        <v>135.8720874609248</v>
       </c>
       <c r="I30" t="n">
-        <v>48.46225833029501</v>
+        <v>135.8720874609248</v>
       </c>
       <c r="J30" t="n">
-        <v>48.46225833029501</v>
+        <v>135.8720874609248</v>
       </c>
       <c r="K30" t="n">
-        <v>48.46225833029501</v>
+        <v>135.8720874609248</v>
       </c>
       <c r="L30" t="n">
-        <v>140.5080242044828</v>
+        <v>135.8720874609248</v>
       </c>
       <c r="M30" t="n">
-        <v>140.5080242044828</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="N30" t="n">
-        <v>140.5080242044828</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="O30" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="P30" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="Q30" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="R30" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="S30" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741894</v>
       </c>
       <c r="T30" t="n">
-        <v>250.9030256651361</v>
+        <v>250.9030256651365</v>
       </c>
       <c r="U30" t="n">
-        <v>207.6638188239216</v>
+        <v>207.663818823922</v>
       </c>
       <c r="V30" t="n">
-        <v>154.5052575965946</v>
+        <v>154.5052575965948</v>
       </c>
       <c r="W30" t="n">
-        <v>88.4264501542436</v>
+        <v>88.42645015424377</v>
       </c>
       <c r="X30" t="n">
-        <v>65.74652335637718</v>
+        <v>65.74652335637727</v>
       </c>
       <c r="Y30" t="n">
         <v>48.46225833029501</v>
@@ -6601,70 +6601,70 @@
         <v>48.46225833029501</v>
       </c>
       <c r="D31" t="n">
-        <v>70.1863396361699</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E31" t="n">
-        <v>92.95214858482315</v>
+        <v>71.22806727894817</v>
       </c>
       <c r="F31" t="n">
-        <v>115.255702448572</v>
+        <v>71.22806727894817</v>
       </c>
       <c r="G31" t="n">
-        <v>121.6786605534243</v>
+        <v>71.22806727894817</v>
       </c>
       <c r="H31" t="n">
-        <v>121.6786605534243</v>
+        <v>71.22806727894817</v>
       </c>
       <c r="I31" t="n">
-        <v>159.0527247778388</v>
+        <v>71.22806727894817</v>
       </c>
       <c r="J31" t="n">
-        <v>159.0527247778388</v>
+        <v>157.1831163839367</v>
       </c>
       <c r="K31" t="n">
-        <v>219.5367304528471</v>
+        <v>157.1831163839367</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1856253265681</v>
+        <v>254.8320112576577</v>
       </c>
       <c r="M31" t="n">
-        <v>317.1856253265681</v>
+        <v>254.8320112576577</v>
       </c>
       <c r="N31" t="n">
-        <v>392.4724458190955</v>
+        <v>254.8320112576577</v>
       </c>
       <c r="O31" t="n">
-        <v>523.6377675245906</v>
+        <v>470.2972843117744</v>
       </c>
       <c r="P31" t="n">
-        <v>523.6377675245906</v>
+        <v>559.2440973896785</v>
       </c>
       <c r="Q31" t="n">
-        <v>523.6377675245906</v>
+        <v>559.2440973896785</v>
       </c>
       <c r="R31" t="n">
-        <v>559.2440973896779</v>
+        <v>559.2440973896785</v>
       </c>
       <c r="S31" t="n">
-        <v>524.8852341847943</v>
+        <v>524.8852341847947</v>
       </c>
       <c r="T31" t="n">
-        <v>467.9519515535717</v>
+        <v>467.9519515535721</v>
       </c>
       <c r="U31" t="n">
-        <v>356.0116492295053</v>
+        <v>356.0116492295057</v>
       </c>
       <c r="V31" t="n">
-        <v>270.5134061122669</v>
+        <v>270.5134061122673</v>
       </c>
       <c r="W31" t="n">
-        <v>159.594065954005</v>
+        <v>159.5940659540053</v>
       </c>
       <c r="X31" t="n">
-        <v>103.5786631737198</v>
+        <v>103.5786631737199</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.78056569033584</v>
+        <v>56.78056569033593</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1303.744081406405</v>
+        <v>1303.744081406404</v>
       </c>
       <c r="C32" t="n">
-        <v>1097.047384063551</v>
+        <v>1097.04738406355</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151135</v>
+        <v>899.4604806151128</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455593</v>
+        <v>679.9118220455586</v>
       </c>
       <c r="F32" t="n">
-        <v>440.9976926800687</v>
+        <v>440.9976926800678</v>
       </c>
       <c r="G32" t="n">
-        <v>200.6570171149988</v>
+        <v>200.657017114999</v>
       </c>
       <c r="H32" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I32" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J32" t="n">
-        <v>48.462258330295</v>
+        <v>335.9865990249807</v>
       </c>
       <c r="K32" t="n">
-        <v>525.9612794082246</v>
+        <v>396.3104741238215</v>
       </c>
       <c r="L32" t="n">
-        <v>525.9612794082246</v>
+        <v>927.3225924128642</v>
       </c>
       <c r="M32" t="n">
-        <v>1009.766424425265</v>
+        <v>927.3225924128642</v>
       </c>
       <c r="N32" t="n">
-        <v>1089.013566182911</v>
+        <v>1527.043039250265</v>
       </c>
       <c r="O32" t="n">
-        <v>1652.670665033947</v>
+        <v>1627.156515357839</v>
       </c>
       <c r="P32" t="n">
-        <v>2126.746824064737</v>
+        <v>2101.232674388629</v>
       </c>
       <c r="Q32" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="R32" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="S32" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="T32" t="n">
-        <v>2376.294689441009</v>
+        <v>2376.29468944101</v>
       </c>
       <c r="U32" t="n">
-        <v>2296.688514451855</v>
+        <v>2296.688514451856</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.946301672135</v>
+        <v>2134.946301672136</v>
       </c>
       <c r="W32" t="n">
-        <v>1947.648432854075</v>
+        <v>1947.648432854076</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.855353699908</v>
+        <v>1740.855353699907</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.550559600085</v>
+        <v>1522.550559600084</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="C33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="L33" t="n">
-        <v>140.508024204483</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="M33" t="n">
-        <v>140.508024204483</v>
+        <v>175.8063208435595</v>
       </c>
       <c r="N33" t="n">
-        <v>140.508024204483</v>
+        <v>175.8063208435595</v>
       </c>
       <c r="O33" t="n">
-        <v>263.2161499741889</v>
+        <v>175.8063208435595</v>
       </c>
       <c r="P33" t="n">
-        <v>263.2161499741889</v>
+        <v>175.8063208435595</v>
       </c>
       <c r="Q33" t="n">
-        <v>263.2161499741889</v>
+        <v>191.5132086431849</v>
       </c>
       <c r="R33" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="S33" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="T33" t="n">
-        <v>250.9030256651361</v>
+        <v>250.9030256651368</v>
       </c>
       <c r="U33" t="n">
-        <v>207.6638188239216</v>
+        <v>207.6638188239222</v>
       </c>
       <c r="V33" t="n">
-        <v>154.5052575965946</v>
+        <v>154.505257596595</v>
       </c>
       <c r="W33" t="n">
-        <v>88.42645015424358</v>
+        <v>88.42645015424389</v>
       </c>
       <c r="X33" t="n">
-        <v>65.74652335637717</v>
+        <v>65.74652335637734</v>
       </c>
       <c r="Y33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="C34" t="n">
-        <v>53.97149038977251</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D34" t="n">
-        <v>75.6955716956474</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E34" t="n">
-        <v>75.6955716956474</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F34" t="n">
-        <v>75.6955716956474</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G34" t="n">
-        <v>82.11852980049972</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H34" t="n">
-        <v>99.72424417512926</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I34" t="n">
-        <v>99.72424417512926</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J34" t="n">
-        <v>228.9691358624628</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K34" t="n">
-        <v>228.9691358624628</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="L34" t="n">
-        <v>363.9731278161796</v>
+        <v>252.064740513837</v>
       </c>
       <c r="M34" t="n">
-        <v>363.9731278161796</v>
+        <v>252.064740513837</v>
       </c>
       <c r="N34" t="n">
-        <v>517.7998494735914</v>
+        <v>405.8914621712489</v>
       </c>
       <c r="O34" t="n">
-        <v>517.7998494735914</v>
+        <v>405.8914621712489</v>
       </c>
       <c r="P34" t="n">
-        <v>523.6377675245906</v>
+        <v>405.8914621712489</v>
       </c>
       <c r="Q34" t="n">
-        <v>523.6377675245906</v>
+        <v>559.2440973896789</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896779</v>
+        <v>559.2440973896789</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847943</v>
+        <v>524.8852341847952</v>
       </c>
       <c r="T34" t="n">
-        <v>467.9519515535717</v>
+        <v>467.9519515535725</v>
       </c>
       <c r="U34" t="n">
-        <v>356.0116492295053</v>
+        <v>356.011649229506</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122669</v>
+        <v>270.5134061122675</v>
       </c>
       <c r="W34" t="n">
-        <v>159.594065954005</v>
+        <v>159.5940659540055</v>
       </c>
       <c r="X34" t="n">
-        <v>103.5786631737197</v>
+        <v>103.5786631737201</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033583</v>
+        <v>56.78056569033599</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1027.066278873635</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607676</v>
+        <v>864.5298822607668</v>
       </c>
       <c r="D35" t="n">
-        <v>711.1032795423159</v>
+        <v>711.1032795423152</v>
       </c>
       <c r="E35" t="n">
-        <v>535.7149217027475</v>
+        <v>535.714921702747</v>
       </c>
       <c r="F35" t="n">
         <v>340.9610930672425</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7807182321598</v>
+        <v>144.7807182321596</v>
       </c>
       <c r="H35" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I35" t="n">
-        <v>36.74626017744163</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J35" t="n">
-        <v>149.9247678911274</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="K35" t="n">
-        <v>253.5301537354271</v>
+        <v>670.1974595060866</v>
       </c>
       <c r="L35" t="n">
-        <v>360.3104226575734</v>
+        <v>776.9777284282334</v>
       </c>
       <c r="M35" t="n">
-        <v>815.0453923534135</v>
+        <v>1231.712698124073</v>
       </c>
       <c r="N35" t="n">
-        <v>1120.779341787454</v>
+        <v>1473.826348451143</v>
       </c>
       <c r="O35" t="n">
-        <v>1575.514311483294</v>
+        <v>1590.675124762485</v>
       </c>
       <c r="P35" t="n">
-        <v>1678.717043842845</v>
+        <v>1693.877857122036</v>
       </c>
       <c r="Q35" t="n">
-        <v>1678.717043842845</v>
+        <v>1720.012565473913</v>
       </c>
       <c r="R35" t="n">
-        <v>1837.313008872081</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="S35" t="n">
-        <v>1837.313008872081</v>
+        <v>1837.31300887208</v>
       </c>
       <c r="T35" t="n">
-        <v>1834.655082528326</v>
+        <v>1834.655082528325</v>
       </c>
       <c r="U35" t="n">
-        <v>1799.209208269157</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V35" t="n">
-        <v>1681.627296219423</v>
+        <v>1681.627296219422</v>
       </c>
       <c r="W35" t="n">
-        <v>1538.489728131349</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y35" t="n">
-        <v>1201.71245633733</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H36" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I36" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J36" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K36" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L36" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="M36" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="N36" t="n">
-        <v>67.66302738714822</v>
+        <v>66.76026326676299</v>
       </c>
       <c r="O36" t="n">
-        <v>67.66302738714822</v>
+        <v>66.76026326676299</v>
       </c>
       <c r="P36" t="n">
-        <v>67.66302738714822</v>
+        <v>66.76026326676299</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.66302738714822</v>
+        <v>66.76026326676299</v>
       </c>
       <c r="R36" t="n">
-        <v>67.66302738714822</v>
+        <v>66.76026326676299</v>
       </c>
       <c r="S36" t="n">
-        <v>67.66302738714822</v>
+        <v>66.76026326676299</v>
       </c>
       <c r="T36" t="n">
-        <v>67.66302738714822</v>
+        <v>66.76026326676299</v>
       </c>
       <c r="U36" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="V36" t="n">
-        <v>58.66476688980689</v>
+        <v>58.6647668898067</v>
       </c>
       <c r="W36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="X36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Y36" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I37" t="n">
-        <v>71.8749978793246</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J37" t="n">
-        <v>71.8749978793246</v>
+        <v>90.73308680243574</v>
       </c>
       <c r="K37" t="n">
-        <v>71.8749978793246</v>
+        <v>90.73308680243574</v>
       </c>
       <c r="L37" t="n">
-        <v>71.8749978793246</v>
+        <v>90.73308680243574</v>
       </c>
       <c r="M37" t="n">
-        <v>71.8749978793246</v>
+        <v>230.282735373632</v>
       </c>
       <c r="N37" t="n">
-        <v>71.8749978793246</v>
+        <v>230.282735373632</v>
       </c>
       <c r="O37" t="n">
-        <v>208.2370495213725</v>
+        <v>230.282735373632</v>
       </c>
       <c r="P37" t="n">
-        <v>208.2370495213725</v>
+        <v>230.282735373632</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.8891242919858</v>
+        <v>230.282735373632</v>
       </c>
       <c r="R37" t="n">
-        <v>239.8891242919858</v>
+        <v>230.282735373632</v>
       </c>
       <c r="S37" t="n">
-        <v>239.8891242919858</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1161423907489</v>
+        <v>227.116142390748</v>
       </c>
       <c r="U37" t="n">
-        <v>159.3361407966683</v>
+        <v>159.3361407966676</v>
       </c>
       <c r="V37" t="n">
-        <v>117.9981984094156</v>
+        <v>117.998198409415</v>
       </c>
       <c r="W37" t="n">
-        <v>51.23915898113938</v>
+        <v>51.23915898113901</v>
       </c>
       <c r="X37" t="n">
-        <v>39.38405693083984</v>
+        <v>39.38405693083965</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1027.066278873636</v>
+        <v>1027.066278873635</v>
       </c>
       <c r="C38" t="n">
-        <v>864.5298822607679</v>
+        <v>864.5298822607673</v>
       </c>
       <c r="D38" t="n">
-        <v>711.1032795423163</v>
+        <v>711.1032795423157</v>
       </c>
       <c r="E38" t="n">
-        <v>535.714921702748</v>
+        <v>535.7149217027475</v>
       </c>
       <c r="F38" t="n">
-        <v>340.9610930672432</v>
+        <v>340.9610930672427</v>
       </c>
       <c r="G38" t="n">
         <v>144.7807182321596</v>
       </c>
       <c r="H38" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2839820965606</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J38" t="n">
-        <v>215.4624898102466</v>
+        <v>433.0898335367057</v>
       </c>
       <c r="K38" t="n">
-        <v>319.0678756545465</v>
+        <v>536.6952193810057</v>
       </c>
       <c r="L38" t="n">
-        <v>425.848144576693</v>
+        <v>991.4301890768455</v>
       </c>
       <c r="M38" t="n">
-        <v>662.7910719616332</v>
+        <v>991.4301890768455</v>
       </c>
       <c r="N38" t="n">
-        <v>1117.526041657473</v>
+        <v>1113.958841579951</v>
       </c>
       <c r="O38" t="n">
-        <v>1572.261011353314</v>
+        <v>1247.384168538498</v>
       </c>
       <c r="P38" t="n">
-        <v>1675.463743712865</v>
+        <v>1702.119138234337</v>
       </c>
       <c r="Q38" t="n">
-        <v>1720.012565473914</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="R38" t="n">
-        <v>1794.031498126622</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="S38" t="n">
-        <v>1837.313008872081</v>
+        <v>1837.31300887208</v>
       </c>
       <c r="T38" t="n">
-        <v>1834.655082528326</v>
+        <v>1834.655082528325</v>
       </c>
       <c r="U38" t="n">
-        <v>1799.209208269157</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V38" t="n">
         <v>1681.627296219423</v>
       </c>
       <c r="W38" t="n">
-        <v>1538.489728131349</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X38" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y38" t="n">
-        <v>1201.71245633733</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="M39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="N39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P39" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="R39" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="S39" t="n">
-        <v>67.66302738714788</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="T39" t="n">
-        <v>67.66302738714788</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="U39" t="n">
-        <v>67.66302738714788</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="V39" t="n">
-        <v>58.66476688980672</v>
+        <v>58.6647668898067</v>
       </c>
       <c r="W39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="X39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I40" t="n">
-        <v>36.74626017744163</v>
+        <v>98.0544115502687</v>
       </c>
       <c r="J40" t="n">
-        <v>165.9828200278894</v>
+        <v>98.0544115502687</v>
       </c>
       <c r="K40" t="n">
-        <v>165.9828200278894</v>
+        <v>98.0544115502687</v>
       </c>
       <c r="L40" t="n">
-        <v>165.9828200278894</v>
+        <v>98.0544115502687</v>
       </c>
       <c r="M40" t="n">
-        <v>239.8891242919847</v>
+        <v>98.0544115502687</v>
       </c>
       <c r="N40" t="n">
-        <v>239.8891242919847</v>
+        <v>98.0544115502687</v>
       </c>
       <c r="O40" t="n">
-        <v>239.8891242919847</v>
+        <v>98.0544115502687</v>
       </c>
       <c r="P40" t="n">
-        <v>239.8891242919847</v>
+        <v>230.282735373632</v>
       </c>
       <c r="Q40" t="n">
-        <v>239.8891242919847</v>
+        <v>230.282735373632</v>
       </c>
       <c r="R40" t="n">
-        <v>239.8891242919847</v>
+        <v>230.282735373632</v>
       </c>
       <c r="S40" t="n">
         <v>239.8891242919847</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1161423907481</v>
+        <v>227.116142390748</v>
       </c>
       <c r="U40" t="n">
         <v>159.3361407966676</v>
       </c>
       <c r="V40" t="n">
-        <v>117.9981984094151</v>
+        <v>117.998198409415</v>
       </c>
       <c r="W40" t="n">
-        <v>51.23915898113904</v>
+        <v>51.23915898113901</v>
       </c>
       <c r="X40" t="n">
-        <v>39.38405693083967</v>
+        <v>39.38405693083965</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1027.066278873636</v>
+        <v>1027.066278873635</v>
       </c>
       <c r="C41" t="n">
-        <v>864.5298822607679</v>
+        <v>864.5298822607676</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423162</v>
+        <v>711.103279542316</v>
       </c>
       <c r="E41" t="n">
-        <v>535.7149217027477</v>
+        <v>535.7149217027478</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672427</v>
+        <v>340.961093067243</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321598</v>
+        <v>144.7807182321596</v>
       </c>
       <c r="H41" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I41" t="n">
-        <v>36.74626017744163</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J41" t="n">
-        <v>360.3419158686945</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9473017129942</v>
+        <v>489.3213447646979</v>
       </c>
       <c r="L41" t="n">
-        <v>570.7275706351405</v>
+        <v>596.1016136868446</v>
       </c>
       <c r="M41" t="n">
-        <v>691.0401525963493</v>
+        <v>1050.836583382684</v>
       </c>
       <c r="N41" t="n">
-        <v>813.5688050994543</v>
+        <v>1173.36523588579</v>
       </c>
       <c r="O41" t="n">
-        <v>1268.303774795294</v>
+        <v>1173.36523588579</v>
       </c>
       <c r="P41" t="n">
-        <v>1371.506507154845</v>
+        <v>1628.10020558163</v>
       </c>
       <c r="Q41" t="n">
-        <v>1720.012565473915</v>
+        <v>1720.012565473913</v>
       </c>
       <c r="R41" t="n">
-        <v>1794.031498126622</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="S41" t="n">
-        <v>1837.313008872081</v>
+        <v>1837.31300887208</v>
       </c>
       <c r="T41" t="n">
-        <v>1834.655082528326</v>
+        <v>1834.655082528325</v>
       </c>
       <c r="U41" t="n">
-        <v>1799.209208269158</v>
+        <v>1799.209208269157</v>
       </c>
       <c r="V41" t="n">
-        <v>1681.627296219424</v>
+        <v>1681.627296219423</v>
       </c>
       <c r="W41" t="n">
         <v>1538.489728131349</v>
       </c>
       <c r="X41" t="n">
-        <v>1375.856949707168</v>
+        <v>1375.856949707167</v>
       </c>
       <c r="Y41" t="n">
         <v>1201.71245633733</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G42" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H42" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I42" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J42" t="n">
-        <v>67.66302738714822</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="L42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="M42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="V42" t="n">
-        <v>58.66476688980689</v>
+        <v>58.6647668898067</v>
       </c>
       <c r="W42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="X42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5270726499379</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L43" t="n">
-        <v>103.5270726499379</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="M43" t="n">
-        <v>103.5270726499379</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="N43" t="n">
-        <v>103.5270726499379</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O43" t="n">
-        <v>239.8891242919858</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P43" t="n">
-        <v>239.8891242919858</v>
+        <v>48.4635251497151</v>
       </c>
       <c r="Q43" t="n">
-        <v>239.8891242919858</v>
+        <v>161.0012836814382</v>
       </c>
       <c r="R43" t="n">
-        <v>239.8891242919858</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="S43" t="n">
-        <v>239.8891242919858</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1161423907489</v>
+        <v>227.116142390748</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966683</v>
+        <v>159.3361407966676</v>
       </c>
       <c r="V43" t="n">
-        <v>117.9981984094156</v>
+        <v>117.998198409415</v>
       </c>
       <c r="W43" t="n">
-        <v>51.23915898113938</v>
+        <v>51.23915898113901</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083984</v>
+        <v>39.38405693083965</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C44" t="n">
-        <v>864.5298822607672</v>
+        <v>864.529882260767</v>
       </c>
       <c r="D44" t="n">
         <v>711.1032795423157</v>
       </c>
       <c r="E44" t="n">
-        <v>535.714921702748</v>
+        <v>535.7149217027472</v>
       </c>
       <c r="F44" t="n">
-        <v>340.961093067243</v>
+        <v>340.9610930672424</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321598</v>
+        <v>144.7807182321596</v>
       </c>
       <c r="H44" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2839820965605</v>
+        <v>102.2839820965606</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2839820965605</v>
+        <v>215.4624898102466</v>
       </c>
       <c r="K44" t="n">
-        <v>205.8893679408602</v>
+        <v>319.0678756545466</v>
       </c>
       <c r="L44" t="n">
-        <v>601.675985677157</v>
+        <v>425.8481445766934</v>
       </c>
       <c r="M44" t="n">
-        <v>721.9885676383658</v>
+        <v>880.5831142725332</v>
       </c>
       <c r="N44" t="n">
-        <v>844.5172201414707</v>
+        <v>880.5831142725332</v>
       </c>
       <c r="O44" t="n">
-        <v>1299.252189837311</v>
+        <v>1335.318083968373</v>
       </c>
       <c r="P44" t="n">
-        <v>1753.987159533151</v>
+        <v>1438.520816327924</v>
       </c>
       <c r="Q44" t="n">
-        <v>1763.294076219374</v>
+        <v>1757.265401803984</v>
       </c>
       <c r="R44" t="n">
-        <v>1837.313008872081</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="S44" t="n">
-        <v>1837.313008872081</v>
+        <v>1837.31300887208</v>
       </c>
       <c r="T44" t="n">
-        <v>1834.655082528326</v>
+        <v>1834.655082528325</v>
       </c>
       <c r="U44" t="n">
-        <v>1799.209208269157</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V44" t="n">
-        <v>1681.627296219423</v>
+        <v>1681.627296219422</v>
       </c>
       <c r="W44" t="n">
-        <v>1538.489728131349</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X44" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y44" t="n">
-        <v>1201.71245633733</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="J45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="K45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="L45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="M45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="N45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="O45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="P45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="R45" t="n">
-        <v>36.74626017744163</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="S45" t="n">
-        <v>66.76026326676352</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="T45" t="n">
-        <v>66.76026326676352</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="U45" t="n">
-        <v>67.66302738714822</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="V45" t="n">
-        <v>58.66476688980689</v>
+        <v>58.66476688980676</v>
       </c>
       <c r="W45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="X45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="C46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K46" t="n">
-        <v>36.74626017744163</v>
+        <v>76.02250776142338</v>
       </c>
       <c r="L46" t="n">
-        <v>177.6766657966216</v>
+        <v>76.02250776142338</v>
       </c>
       <c r="M46" t="n">
-        <v>177.6766657966216</v>
+        <v>230.2827353736324</v>
       </c>
       <c r="N46" t="n">
-        <v>239.8891242919858</v>
+        <v>230.2827353736324</v>
       </c>
       <c r="O46" t="n">
-        <v>239.8891242919858</v>
+        <v>230.2827353736324</v>
       </c>
       <c r="P46" t="n">
-        <v>239.8891242919858</v>
+        <v>230.2827353736324</v>
       </c>
       <c r="Q46" t="n">
-        <v>239.8891242919858</v>
+        <v>230.2827353736324</v>
       </c>
       <c r="R46" t="n">
-        <v>239.8891242919858</v>
+        <v>230.2827353736324</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919858</v>
+        <v>239.889124291985</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1161423907489</v>
+        <v>227.1161423907483</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966683</v>
+        <v>159.3361407966678</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9981984094156</v>
+        <v>117.9981984094152</v>
       </c>
       <c r="W46" t="n">
-        <v>51.23915898113938</v>
+        <v>51.23915898113913</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083984</v>
+        <v>39.38405693083971</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.74626017744163</v>
+        <v>36.74626017744161</v>
       </c>
     </row>
   </sheetData>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>102.8816634704624</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>294.9545130366213</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>71.8952937147056</v>
       </c>
       <c r="M26" t="n">
-        <v>391.5034239346647</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>525.7306111916712</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O26" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P26" t="n">
-        <v>112.9582042322146</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
         <v>276.0094878578761</v>
@@ -9948,31 +9948,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.1634712931604</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>206.6684669997714</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>52.05064111562928</v>
       </c>
       <c r="M27" t="n">
-        <v>44.8543245360808</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O27" t="n">
-        <v>49.53708892351365</v>
+        <v>92.9755210850383</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10030,25 +10030,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>211.2171120040207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>191.5065163945057</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>83.63942497583893</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10115,22 +10115,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>541.6380693542557</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>95.67552786690355</v>
       </c>
       <c r="N29" t="n">
-        <v>74.32045379947184</v>
+        <v>93.43707277407918</v>
       </c>
       <c r="O29" t="n">
-        <v>495.0402356415689</v>
+        <v>198.8066387594476</v>
       </c>
       <c r="P29" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,28 +10188,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.71955400614101</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L30" t="n">
-        <v>145.0261622006674</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>22.00130895583841</v>
       </c>
       <c r="P30" t="n">
-        <v>55.62466529233109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.15265312299752</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,22 +10267,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>138.7668962480483</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>76.24414745277531</v>
       </c>
       <c r="N31" t="n">
-        <v>144.029798397917</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O31" t="n">
-        <v>211.9541662756472</v>
+        <v>123.6209415732604</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>102.8816634704625</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>4.465051387708669</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M32" t="n">
-        <v>584.3675935406823</v>
+        <v>95.67552786690355</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>525.7306111916714</v>
       </c>
       <c r="O32" t="n">
-        <v>495.0402356415689</v>
+        <v>200.2990447936125</v>
       </c>
       <c r="P32" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.2376194981706</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>66.98372024565228</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>49.53708892351365</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>55.62466529233109</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>77.67194102076732</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>211.2171120040207</v>
+        <v>107.0238255654758</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>76.24414745277531</v>
       </c>
       <c r="N34" t="n">
         <v>223.3630318978003</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P34" t="n">
-        <v>89.53631189604022</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>354.6763473247877</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>337.8003916511427</v>
+        <v>555.0037800849236</v>
       </c>
       <c r="N35" t="n">
-        <v>185.0558554857938</v>
+        <v>120.7929270949137</v>
       </c>
       <c r="O35" t="n">
-        <v>341.2991852368676</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.732781148220639</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>66.98372024565228</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10750,10 +10750,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24414745277542</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>67.98250497112173</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>390.3510761978395</v>
       </c>
       <c r="M38" t="n">
-        <v>117.8084297209406</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>552.7653249920997</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>341.2991852368675</v>
+        <v>16.74399055273251</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>355.0830680164531</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>222.8593002951601</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>337.800391651142</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415689</v>
+        <v>99.17432145262852</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>355.0830680164531</v>
       </c>
       <c r="Q41" t="n">
-        <v>259.1855539664508</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7195540061411</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>74.84944336390269</v>
+        <v>74.84944336390259</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>291.9256048627782</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>337.800391651142</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>341.2991852368676</v>
+        <v>341.299185236867</v>
       </c>
       <c r="P44" t="n">
-        <v>355.0830680164538</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>229.123460185632</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11461,19 +11461,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O46" t="n">
-        <v>79.46394233070281</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583902</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5285412724722</v>
+        <v>174.5285412724726</v>
       </c>
       <c r="C11" t="n">
-        <v>162.5398582301539</v>
+        <v>162.5398582301544</v>
       </c>
       <c r="D11" t="n">
-        <v>153.5211622746819</v>
+        <v>7.071185364014724</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445874</v>
+        <v>175.2632998445879</v>
       </c>
       <c r="F11" t="n">
-        <v>194.4351159325646</v>
+        <v>74.8923727152997</v>
       </c>
       <c r="G11" t="n">
-        <v>148.1673514104745</v>
+        <v>195.8473966701476</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>108.5829390575861</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999193</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.18529931268745</v>
+        <v>162.6352762233552</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.0318740195536</v>
+        <v>174.031874019554</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.5285412724722</v>
+        <v>28.07856436180492</v>
       </c>
       <c r="C14" t="n">
-        <v>16.08988131948655</v>
+        <v>162.5398582301543</v>
       </c>
       <c r="D14" t="n">
-        <v>153.5211622746819</v>
+        <v>153.5211622746822</v>
       </c>
       <c r="E14" t="n">
-        <v>175.2632998445874</v>
+        <v>28.81332293392018</v>
       </c>
       <c r="F14" t="n">
-        <v>47.98513902189723</v>
+        <v>194.4351159325649</v>
       </c>
       <c r="G14" t="n">
-        <v>195.8473966701471</v>
+        <v>49.39741975947987</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5829390575856</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.26017266373257</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.72024109999227</v>
       </c>
       <c r="V14" t="n">
-        <v>25.76201994972749</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906082</v>
+        <v>18.60205099142553</v>
       </c>
       <c r="X14" t="n">
-        <v>16.18529931268745</v>
+        <v>162.6352762233552</v>
       </c>
       <c r="Y14" t="n">
-        <v>174.0318740195536</v>
+        <v>174.0318740195539</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.094235813070554e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
     </row>
     <row r="18">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518697.2685428196</v>
+        <v>518697.2685428194</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>518697.2685428196</v>
+        <v>518697.2685428195</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718724.4614541361</v>
+        <v>718724.4614541357</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718724.4614541361</v>
+        <v>718724.4614541358</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718724.4614541362</v>
+        <v>718724.4614541361</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644458.9186758299</v>
+        <v>644458.9186758297</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644458.9186758299</v>
+        <v>644458.9186758297</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644458.9186758299</v>
+        <v>644458.9186758297</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644458.9186758299</v>
+        <v>644458.9186758297</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>746729.7157196217</v>
       </c>
       <c r="C2" t="n">
-        <v>746729.7157196217</v>
+        <v>746729.7157196215</v>
       </c>
       <c r="D2" t="n">
-        <v>746729.7157196219</v>
+        <v>746729.7157196216</v>
       </c>
       <c r="E2" t="n">
-        <v>652554.6281667731</v>
+        <v>652554.6281667729</v>
       </c>
       <c r="F2" t="n">
-        <v>652554.6281667728</v>
+        <v>652554.628166773</v>
       </c>
       <c r="G2" t="n">
         <v>748433.4589818276</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818276</v>
+        <v>748433.4589818277</v>
       </c>
       <c r="I2" t="n">
         <v>748433.4589818275</v>
       </c>
       <c r="J2" t="n">
+        <v>748433.4589818269</v>
+      </c>
+      <c r="K2" t="n">
+        <v>748433.4589818268</v>
+      </c>
+      <c r="L2" t="n">
         <v>748433.4589818267</v>
       </c>
-      <c r="K2" t="n">
-        <v>748433.4589818267</v>
-      </c>
-      <c r="L2" t="n">
-        <v>748433.4589818268</v>
-      </c>
       <c r="M2" t="n">
-        <v>748433.4589818278</v>
+        <v>748433.4589818274</v>
       </c>
       <c r="N2" t="n">
         <v>748433.4589818274</v>
       </c>
       <c r="O2" t="n">
-        <v>748433.4589818283</v>
+        <v>748433.4589818273</v>
       </c>
       <c r="P2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818276</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.8499715895</v>
+        <v>320303.8499715893</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.10818431354486e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.3512460685</v>
+        <v>86866.35124606878</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172101.8825461396</v>
+        <v>172101.8825461392</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.260632872151639e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>86866.3512460685</v>
+        <v>86866.35124606873</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.95817814868</v>
+        <v>34974.95817814893</v>
       </c>
       <c r="N3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51921.40132280781</v>
+        <v>51921.40132280761</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>337492.0798944829</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="F4" t="n">
-        <v>337492.079894483</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="G4" t="n">
         <v>393534.1149340968</v>
       </c>
       <c r="H4" t="n">
-        <v>393534.1149340967</v>
+        <v>393534.1149340968</v>
       </c>
       <c r="I4" t="n">
         <v>393534.1149340968</v>
       </c>
       <c r="J4" t="n">
-        <v>401705.6227511126</v>
+        <v>401705.6227511127</v>
       </c>
       <c r="K4" t="n">
         <v>401705.6227511127</v>
       </c>
       <c r="L4" t="n">
-        <v>401705.6227511128</v>
+        <v>401705.6227511126</v>
       </c>
       <c r="M4" t="n">
-        <v>397296.6362691748</v>
+        <v>397296.6362691747</v>
       </c>
       <c r="N4" t="n">
-        <v>397296.6362691749</v>
+        <v>397296.6362691747</v>
       </c>
       <c r="O4" t="n">
-        <v>397296.6362691749</v>
+        <v>397296.6362691747</v>
       </c>
       <c r="P4" t="n">
-        <v>397296.6362691749</v>
+        <v>397296.6362691746</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29852.47964145843</v>
+        <v>29852.47964145841</v>
       </c>
       <c r="F5" t="n">
-        <v>29852.47964145843</v>
+        <v>29852.47964145841</v>
       </c>
       <c r="G5" t="n">
-        <v>38980.93874509059</v>
+        <v>38980.93874509061</v>
       </c>
       <c r="H5" t="n">
-        <v>38980.93874509059</v>
+        <v>38980.93874509061</v>
       </c>
       <c r="I5" t="n">
         <v>38980.93874509061</v>
@@ -26497,16 +26497,16 @@
         <v>54241.18391543766</v>
       </c>
       <c r="L5" t="n">
-        <v>54241.18391543765</v>
+        <v>54241.18391543766</v>
       </c>
       <c r="M5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811757</v>
       </c>
       <c r="N5" t="n">
-        <v>49012.41251811758</v>
+        <v>49012.41251811757</v>
       </c>
       <c r="O5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811757</v>
       </c>
       <c r="P5" t="n">
         <v>49012.41251811756</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275964.9505081876</v>
+        <v>275960.5819357204</v>
       </c>
       <c r="C6" t="n">
-        <v>275964.9505081876</v>
+        <v>275960.5819357202</v>
       </c>
       <c r="D6" t="n">
-        <v>275964.9505081877</v>
+        <v>275960.5819357203</v>
       </c>
       <c r="E6" t="n">
-        <v>-35093.78134075773</v>
+        <v>-35339.62449669358</v>
       </c>
       <c r="F6" t="n">
-        <v>285210.0686308314</v>
+        <v>284964.2254748957</v>
       </c>
       <c r="G6" t="n">
-        <v>229052.0540565717</v>
+        <v>229052.0540565715</v>
       </c>
       <c r="H6" t="n">
         <v>315918.4053026403</v>
@@ -26543,25 +26543,25 @@
         <v>315918.4053026401</v>
       </c>
       <c r="J6" t="n">
-        <v>120384.7697691367</v>
+        <v>120384.7697691374</v>
       </c>
       <c r="K6" t="n">
-        <v>292486.6523152763</v>
+        <v>292486.6523152764</v>
       </c>
       <c r="L6" t="n">
-        <v>205620.3010692078</v>
+        <v>205620.3010692077</v>
       </c>
       <c r="M6" t="n">
-        <v>267149.4520163867</v>
+        <v>267149.4520163861</v>
       </c>
       <c r="N6" t="n">
-        <v>302124.4101945348</v>
+        <v>302124.4101945351</v>
       </c>
       <c r="O6" t="n">
-        <v>250203.0088717281</v>
+        <v>250203.0088717273</v>
       </c>
       <c r="P6" t="n">
-        <v>302124.410194535</v>
+        <v>302124.4101945354</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F2" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G2" t="n">
         <v>324.1575019079524</v>
@@ -26710,22 +26710,22 @@
         <v>173.4846907110956</v>
       </c>
       <c r="K2" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L2" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N2" t="n">
         <v>217.2033884337816</v>
       </c>
       <c r="O2" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P2" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>129.5955560102002</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5955560101999</v>
+        <v>129.5955560102002</v>
       </c>
       <c r="H3" t="n">
         <v>129.5955560102002</v>
@@ -26765,19 +26765,19 @@
         <v>129.5955560102002</v>
       </c>
       <c r="L3" t="n">
-        <v>129.5955560101998</v>
+        <v>129.5955560102002</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5955560101998</v>
+        <v>129.5955560102002</v>
       </c>
       <c r="N3" t="n">
-        <v>129.5955560101998</v>
+        <v>129.5955560102002</v>
       </c>
       <c r="O3" t="n">
-        <v>129.5955560101998</v>
+        <v>129.5955560102002</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5955560101998</v>
+        <v>129.5955560102002</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="F4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="G4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="I4" t="n">
         <v>146.4499769106676</v>
@@ -26814,22 +26814,22 @@
         <v>605.7782291286876</v>
       </c>
       <c r="K4" t="n">
-        <v>605.7782291286876</v>
+        <v>605.7782291286877</v>
       </c>
       <c r="L4" t="n">
-        <v>605.7782291286875</v>
+        <v>605.7782291286877</v>
       </c>
       <c r="M4" t="n">
-        <v>459.3282522180203</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="N4" t="n">
-        <v>459.3282522180203</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="O4" t="n">
-        <v>459.3282522180203</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="P4" t="n">
-        <v>459.3282522180203</v>
+        <v>459.3282522180201</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.385230391931075e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5829390575856</v>
+        <v>108.582939057586</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.90175165350996</v>
+        <v>64.90175165350951</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.325791090189549e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>108.5829390575856</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268585</v>
+        <v>43.71869772268616</v>
       </c>
       <c r="N2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350976</v>
+        <v>64.90175165350951</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.385230391931075e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>108.5829390575856</v>
+        <v>108.582939057586</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350996</v>
+        <v>64.90175165350951</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.325791090189549e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="I11" t="n">
-        <v>215.5745628503668</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J11" t="n">
-        <v>215.5745628503668</v>
+        <v>170.1481283151794</v>
       </c>
       <c r="K11" t="n">
-        <v>215.5745628503668</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="M11" t="n">
-        <v>172.6411191973339</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="N11" t="n">
-        <v>93.43707277407918</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5745628503668</v>
+        <v>99.17432145262852</v>
       </c>
       <c r="P11" t="n">
         <v>112.9582042322146</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.3626208658183</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="R11" t="n">
-        <v>142.4367897946829</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="S11" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>180.8420817853068</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28196,7 +28196,7 @@
         <v>66.98372024565214</v>
       </c>
       <c r="L12" t="n">
-        <v>87.33499305723731</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M12" t="n">
         <v>44.8543245360808</v>
@@ -28223,13 +28223,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28251,10 +28251,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28263,7 +28263,7 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H13" t="n">
-        <v>155.7011408377324</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="I13" t="n">
         <v>135.7331106864345</v>
@@ -28278,7 +28278,7 @@
         <v>74.84944336390259</v>
       </c>
       <c r="M13" t="n">
-        <v>159.4752058581034</v>
+        <v>76.24414745277531</v>
       </c>
       <c r="N13" t="n">
         <v>67.98250497112161</v>
@@ -28287,10 +28287,10 @@
         <v>79.46394233070271</v>
       </c>
       <c r="P13" t="n">
-        <v>215.5745628503668</v>
+        <v>83.63942497583893</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.5288848663845</v>
+        <v>129.7026317696857</v>
       </c>
       <c r="R13" t="n">
         <v>137.5187009483811</v>
@@ -28299,22 +28299,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503663</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="C14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="D14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="E14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="H14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="I14" t="n">
         <v>151.0036693235603</v>
       </c>
       <c r="J14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="K14" t="n">
-        <v>112.5514835405492</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="L14" t="n">
-        <v>215.5745628503668</v>
+        <v>187.0240839888245</v>
       </c>
       <c r="M14" t="n">
-        <v>195.5288612765345</v>
+        <v>95.67552786690355</v>
       </c>
       <c r="N14" t="n">
-        <v>93.43707277407918</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5745628503668</v>
+        <v>99.17432145262852</v>
       </c>
       <c r="P14" t="n">
-        <v>215.5745628503668</v>
+        <v>112.9582042322146</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.3626208658183</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="R14" t="n">
-        <v>142.4367897946829</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="S14" t="n">
-        <v>215.5745628503668</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="15">
@@ -28439,7 +28439,7 @@
         <v>44.8543245360808</v>
       </c>
       <c r="N15" t="n">
-        <v>69.50056021828935</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O15" t="n">
         <v>49.53708892351365</v>
@@ -28448,7 +28448,7 @@
         <v>55.62466529233109</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.15265312299752</v>
+        <v>113.4370050646066</v>
       </c>
       <c r="R15" t="n">
         <v>101.057477245434</v>
@@ -28460,13 +28460,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U15" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V15" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W15" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -28485,13 +28485,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>177.2752478822558</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>215.5745628503668</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
@@ -28512,7 +28512,7 @@
         <v>77.67194102076724</v>
       </c>
       <c r="L16" t="n">
-        <v>215.5745628503668</v>
+        <v>74.84944336390259</v>
       </c>
       <c r="M16" t="n">
         <v>76.24414745277531</v>
@@ -28521,13 +28521,13 @@
         <v>67.98250497112161</v>
       </c>
       <c r="O16" t="n">
-        <v>79.46394233070271</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="P16" t="n">
         <v>83.63942497583893</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5288848663845</v>
+        <v>182.5844606265788</v>
       </c>
       <c r="R16" t="n">
         <v>137.5187009483811</v>
@@ -28536,22 +28536,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T16" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U16" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W16" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X16" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.5745628503668</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="17">
@@ -28582,43 +28582,43 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4536462342277</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8816634704625</v>
+        <v>102.8816634704624</v>
       </c>
       <c r="K17" t="n">
-        <v>181.2215917093536</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L17" t="n">
-        <v>109.3445309366639</v>
+        <v>249.8773370630619</v>
       </c>
       <c r="M17" t="n">
-        <v>95.67552786690375</v>
+        <v>242.1255047775712</v>
       </c>
       <c r="N17" t="n">
-        <v>239.8870496847468</v>
+        <v>93.43707277407918</v>
       </c>
       <c r="O17" t="n">
-        <v>99.17432145262872</v>
+        <v>99.17432145262852</v>
       </c>
       <c r="P17" t="n">
-        <v>112.9582042322148</v>
+        <v>259.4081811428822</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.3626208658185</v>
+        <v>270.812597776486</v>
       </c>
       <c r="R17" t="n">
-        <v>288.8867667053503</v>
+        <v>142.4367897946829</v>
       </c>
       <c r="S17" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T17" t="n">
         <v>219.8347355140993</v>
       </c>
       <c r="U17" t="n">
-        <v>324.1575019079524</v>
+        <v>252.2948039503587</v>
       </c>
       <c r="V17" t="n">
         <v>324.1575019079524</v>
@@ -28658,34 +28658,34 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H18" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I18" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773518</v>
       </c>
       <c r="J18" t="n">
-        <v>76.71955400614107</v>
+        <v>76.71955400614101</v>
       </c>
       <c r="K18" t="n">
-        <v>66.98372024565224</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L18" t="n">
-        <v>52.05064111562941</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M18" t="n">
-        <v>44.85432453608095</v>
+        <v>44.8543245360808</v>
       </c>
       <c r="N18" t="n">
-        <v>34.21620827668147</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O18" t="n">
-        <v>49.53708892351379</v>
+        <v>49.53708892351365</v>
       </c>
       <c r="P18" t="n">
-        <v>55.62466529233121</v>
+        <v>55.62466529233109</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.15265312299761</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R18" t="n">
         <v>101.057477245434</v>
@@ -28743,31 +28743,31 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J19" t="n">
-        <v>86.66140878686467</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K19" t="n">
-        <v>77.67194102076729</v>
+        <v>77.67194102076724</v>
       </c>
       <c r="L19" t="n">
-        <v>74.84944336390267</v>
+        <v>74.84944336390259</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24414745277539</v>
+        <v>76.24414745277531</v>
       </c>
       <c r="N19" t="n">
-        <v>67.9825049711217</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O19" t="n">
-        <v>79.46394233070278</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P19" t="n">
-        <v>83.63942497583899</v>
+        <v>83.63942497583893</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R19" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S19" t="n">
         <v>207.4999652839304</v>
@@ -28819,10 +28819,10 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4536462342277</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J20" t="n">
-        <v>139.0917032030073</v>
+        <v>249.3316403811299</v>
       </c>
       <c r="K20" t="n">
         <v>112.5514835405492</v>
@@ -28834,13 +28834,13 @@
         <v>95.67552786690355</v>
       </c>
       <c r="N20" t="n">
-        <v>239.8870496847466</v>
+        <v>239.8870496847468</v>
       </c>
       <c r="O20" t="n">
-        <v>99.17432145262852</v>
+        <v>239.7071275790267</v>
       </c>
       <c r="P20" t="n">
-        <v>112.9582042322146</v>
+        <v>259.4081811428822</v>
       </c>
       <c r="Q20" t="n">
         <v>124.3626208658183</v>
@@ -28849,10 +28849,10 @@
         <v>142.4367897946829</v>
       </c>
       <c r="S20" t="n">
-        <v>319.9346676217629</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T20" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U20" t="n">
         <v>252.2948039503587</v>
@@ -29059,13 +29059,13 @@
         <v>151.0036693235603</v>
       </c>
       <c r="J23" t="n">
-        <v>249.3316403811299</v>
+        <v>171.5517716392669</v>
       </c>
       <c r="K23" t="n">
-        <v>181.2215917093537</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L23" t="n">
-        <v>109.3445309366637</v>
+        <v>255.7945078473313</v>
       </c>
       <c r="M23" t="n">
         <v>95.67552786690355</v>
@@ -29077,7 +29077,7 @@
         <v>245.6242983632961</v>
       </c>
       <c r="P23" t="n">
-        <v>259.4081811428822</v>
+        <v>112.9582042322146</v>
       </c>
       <c r="Q23" t="n">
         <v>124.3626208658183</v>
@@ -29086,7 +29086,7 @@
         <v>142.4367897946829</v>
       </c>
       <c r="S23" t="n">
-        <v>173.4846907110955</v>
+        <v>319.9346676217631</v>
       </c>
       <c r="T23" t="n">
         <v>219.8347355140993</v>
@@ -29296,34 +29296,34 @@
         <v>151.0036693235603</v>
       </c>
       <c r="J26" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="L26" t="n">
+        <v>37.44923722195806</v>
+      </c>
+      <c r="M26" t="n">
         <v>173.4846907110956</v>
       </c>
-      <c r="M26" t="n">
-        <v>158.9680008524786</v>
-      </c>
       <c r="N26" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R26" t="n">
-        <v>57.00544395980573</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S26" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T26" t="n">
         <v>173.4846907110956</v>
@@ -29369,34 +29369,34 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H27" t="n">
-        <v>173.4846907110956</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I27" t="n">
-        <v>58.10105571457478</v>
+        <v>71.26452700773518</v>
       </c>
       <c r="J27" t="n">
         <v>76.71955400614101</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>44.8543245360808</v>
       </c>
       <c r="N27" t="n">
-        <v>34.21620827668131</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P27" t="n">
         <v>55.62466529233109</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.15265312299752</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>101.057477245434</v>
@@ -29442,7 +29442,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>157.5218065280343</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
         <v>166.9968542415478</v>
@@ -29454,10 +29454,10 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J28" t="n">
-        <v>86.66140878686463</v>
+        <v>42.9342950673243</v>
       </c>
       <c r="K28" t="n">
-        <v>77.67194102076724</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="L28" t="n">
         <v>173.4846907110956</v>
@@ -29466,19 +29466,19 @@
         <v>76.24414745277531</v>
       </c>
       <c r="N28" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>173.4846907110956</v>
       </c>
       <c r="P28" t="n">
-        <v>83.63942497583893</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>18.58303897530762</v>
       </c>
       <c r="R28" t="n">
-        <v>137.5187009483811</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S28" t="n">
         <v>173.4846907110956</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I29" t="n">
         <v>151.0036693235603</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K29" t="n">
-        <v>86.68466370273605</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L29" t="n">
-        <v>173.4846907110956</v>
+        <v>172.1631811497658</v>
       </c>
       <c r="M29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3626208658183</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="R29" t="n">
-        <v>57.00544395980573</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="S29" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="T29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="30">
@@ -29600,40 +29600,40 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>144.4012406487295</v>
       </c>
       <c r="G30" t="n">
         <v>127.1624622715678</v>
       </c>
       <c r="H30" t="n">
-        <v>96.24631459259477</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I30" t="n">
         <v>71.26452700773518</v>
       </c>
       <c r="J30" t="n">
-        <v>76.71955400614101</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>66.98372024565214</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>44.8543245360808</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N30" t="n">
-        <v>34.21620827668131</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4846907110956</v>
+        <v>27.53577996767524</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>55.62466529233109</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R30" t="n">
         <v>101.057477245434</v>
@@ -29642,22 +29642,22 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>173.4846907110956</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F31" t="n">
-        <v>173.4846907110956</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>173.4846907110956</v>
+        <v>166.9968542415478</v>
       </c>
       <c r="H31" t="n">
         <v>155.7011408377324</v>
       </c>
       <c r="I31" t="n">
-        <v>173.4846907110956</v>
+        <v>135.7331106864345</v>
       </c>
       <c r="J31" t="n">
-        <v>42.9342950673243</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>77.67194102076724</v>
       </c>
       <c r="L31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24414745277531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P31" t="n">
-        <v>83.63942497583893</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q31" t="n">
         <v>18.58303897530762</v>
       </c>
       <c r="R31" t="n">
-        <v>173.4846907110956</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I32" t="n">
-        <v>151.0036693235604</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L32" t="n">
-        <v>104.8794795489553</v>
+        <v>102.7608290807173</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O32" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="R32" t="n">
-        <v>57.00544395980583</v>
+        <v>57.00544395980573</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="33">
@@ -29843,58 +29843,58 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H33" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I33" t="n">
-        <v>71.26452700773521</v>
+        <v>71.26452700773518</v>
       </c>
       <c r="J33" t="n">
-        <v>76.7195540061411</v>
+        <v>76.71955400614101</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L33" t="n">
-        <v>145.0261622006678</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M33" t="n">
-        <v>44.85432453608101</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N33" t="n">
-        <v>34.21620827668154</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>55.62466529233125</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299763</v>
+        <v>94.01819635494232</v>
       </c>
       <c r="R33" t="n">
-        <v>101.057477245434</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="S33" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="34">
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C34" t="n">
-        <v>173.4846907110956</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4846907110956</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -29919,61 +29919,61 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>173.4846907110956</v>
+        <v>166.9968542415478</v>
       </c>
       <c r="H34" t="n">
-        <v>173.4846907110956</v>
+        <v>155.7011408377324</v>
       </c>
       <c r="I34" t="n">
         <v>135.7331106864345</v>
       </c>
       <c r="J34" t="n">
-        <v>173.4846907110956</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>77.67194102076724</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M34" t="n">
-        <v>76.24414745277542</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>79.46394233070281</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.63942497583893</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.5288848663846</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="R34" t="n">
-        <v>173.4846907110956</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="D35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="E35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="F35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="G35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I35" t="n">
-        <v>151.0036693235604</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="L35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2033884337814</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="O35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Q35" t="n">
-        <v>115.6298397175979</v>
+        <v>150.761316170745</v>
       </c>
       <c r="R35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="S35" t="n">
-        <v>173.4846907110956</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="36">
@@ -30080,34 +30080,34 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H36" t="n">
-        <v>127.4753723801772</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I36" t="n">
-        <v>71.26452700773521</v>
+        <v>58.10105571457478</v>
       </c>
       <c r="J36" t="n">
-        <v>76.7195540061411</v>
+        <v>76.71955400614101</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L36" t="n">
-        <v>52.05064111562947</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M36" t="n">
-        <v>44.85432453608101</v>
+        <v>44.8543245360808</v>
       </c>
       <c r="N36" t="n">
-        <v>34.21620827668154</v>
+        <v>64.53338311437969</v>
       </c>
       <c r="O36" t="n">
-        <v>49.53708892351385</v>
+        <v>49.53708892351365</v>
       </c>
       <c r="P36" t="n">
-        <v>55.62466529233125</v>
+        <v>55.62466529233109</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.15265312299763</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R36" t="n">
         <v>101.057477245434</v>
@@ -30119,13 +30119,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2915054838979</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V36" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W36" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.2033884337814</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30165,52 +30165,52 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J37" t="n">
-        <v>86.66140878686468</v>
+        <v>141.1935568929193</v>
       </c>
       <c r="K37" t="n">
-        <v>77.67194102076732</v>
+        <v>77.67194102076724</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390269</v>
+        <v>74.84944336390259</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O37" t="n">
-        <v>217.2033884337814</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P37" t="n">
-        <v>83.63942497583902</v>
+        <v>83.63942497583893</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.5006775639738</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R37" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S37" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="38">
@@ -30250,13 +30250,13 @@
         <v>217.2033884337816</v>
       </c>
       <c r="L38" t="n">
+        <v>178.3217069568443</v>
+      </c>
+      <c r="M38" t="n">
+        <v>95.67552786690355</v>
+      </c>
+      <c r="N38" t="n">
         <v>217.2033884337816</v>
-      </c>
-      <c r="M38" t="n">
-        <v>217.2033884337816</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>217.2033884337816</v>
@@ -30265,10 +30265,10 @@
         <v>217.2033884337816</v>
       </c>
       <c r="Q38" t="n">
-        <v>169.3614307254648</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R38" t="n">
-        <v>217.2033884337816</v>
+        <v>142.4367897946829</v>
       </c>
       <c r="S38" t="n">
         <v>217.2033884337816</v>
@@ -30317,40 +30317,40 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H39" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I39" t="n">
-        <v>71.26452700773521</v>
+        <v>71.26452700773518</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7195540061411</v>
+        <v>76.71955400614101</v>
       </c>
       <c r="K39" t="n">
-        <v>66.98372024565228</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562947</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M39" t="n">
-        <v>44.85432453608101</v>
+        <v>44.8543245360808</v>
       </c>
       <c r="N39" t="n">
-        <v>34.21620827668154</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O39" t="n">
-        <v>49.53708892351385</v>
+        <v>49.53708892351365</v>
       </c>
       <c r="P39" t="n">
-        <v>55.62466529233125</v>
+        <v>86.85372307991317</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.15265312299763</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R39" t="n">
-        <v>101.057477245434</v>
+        <v>41.87930649071693</v>
       </c>
       <c r="S39" t="n">
-        <v>177.3228406624862</v>
+        <v>146.0937828749041</v>
       </c>
       <c r="T39" t="n">
         <v>185.6746837770579</v>
@@ -30399,37 +30399,37 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I40" t="n">
-        <v>135.7331106864345</v>
+        <v>197.6605363155527</v>
       </c>
       <c r="J40" t="n">
+        <v>86.66140878686463</v>
+      </c>
+      <c r="K40" t="n">
+        <v>77.67194102076724</v>
+      </c>
+      <c r="L40" t="n">
+        <v>74.84944336390259</v>
+      </c>
+      <c r="M40" t="n">
+        <v>76.24414745277531</v>
+      </c>
+      <c r="N40" t="n">
+        <v>67.98250497112161</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>217.2033884337816</v>
       </c>
-      <c r="K40" t="n">
-        <v>77.67194102076732</v>
-      </c>
-      <c r="L40" t="n">
-        <v>74.84944336390269</v>
-      </c>
-      <c r="M40" t="n">
-        <v>150.8969800427707</v>
-      </c>
-      <c r="N40" t="n">
-        <v>67.98250497112173</v>
-      </c>
-      <c r="O40" t="n">
-        <v>79.46394233070281</v>
-      </c>
-      <c r="P40" t="n">
-        <v>83.63942497583902</v>
-      </c>
       <c r="Q40" t="n">
-        <v>18.58303897530768</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R40" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S40" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T40" t="n">
         <v>217.2033884337816</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="D41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="E41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="F41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="G41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I41" t="n">
-        <v>151.0036693235604</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J41" t="n">
-        <v>209.9203624247998</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K41" t="n">
-        <v>217.2033884337814</v>
+        <v>166.3172892599862</v>
       </c>
       <c r="L41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="O41" t="n">
-        <v>63.46233802908023</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="S41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="42">
@@ -30551,37 +30551,37 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>158.3915200591503</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H42" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I42" t="n">
-        <v>71.26452700773521</v>
+        <v>71.26452700773518</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.71955400614101</v>
       </c>
       <c r="K42" t="n">
-        <v>66.98372024565228</v>
+        <v>98.21277803323422</v>
       </c>
       <c r="L42" t="n">
-        <v>52.05064111562947</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M42" t="n">
-        <v>44.85432453608101</v>
+        <v>44.8543245360808</v>
       </c>
       <c r="N42" t="n">
-        <v>34.21620827668154</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O42" t="n">
-        <v>49.53708892351385</v>
+        <v>49.53708892351365</v>
       </c>
       <c r="P42" t="n">
-        <v>55.62466529233125</v>
+        <v>55.62466529233109</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.15265312299763</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R42" t="n">
         <v>101.057477245434</v>
@@ -30596,10 +30596,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V42" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W42" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -30639,52 +30639,52 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J43" t="n">
-        <v>86.66140878686468</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K43" t="n">
-        <v>145.1273071546019</v>
+        <v>77.67194102076724</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24414745277542</v>
+        <v>76.24414745277531</v>
       </c>
       <c r="N43" t="n">
-        <v>67.98250497112173</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O43" t="n">
-        <v>217.2033884337814</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583902</v>
+        <v>95.47504615995356</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.5288848663846</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R43" t="n">
-        <v>137.5187009483812</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="S43" t="n">
         <v>207.4999652839304</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="D44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="E44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="F44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="G44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J44" t="n">
-        <v>102.8816634704625</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="L44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N44" t="n">
-        <v>217.2033884337814</v>
+        <v>93.43707277407918</v>
       </c>
       <c r="O44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.7635468114982</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R44" t="n">
-        <v>217.2033884337814</v>
+        <v>179.57426082765</v>
       </c>
       <c r="S44" t="n">
-        <v>173.4846907110956</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="45">
@@ -30791,52 +30791,52 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H45" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I45" t="n">
-        <v>71.26452700773521</v>
+        <v>102.4935847953174</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7195540061411</v>
+        <v>76.71955400614101</v>
       </c>
       <c r="K45" t="n">
-        <v>66.98372024565228</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L45" t="n">
-        <v>52.05064111562947</v>
+        <v>52.05064111562928</v>
       </c>
       <c r="M45" t="n">
-        <v>44.85432453608101</v>
+        <v>44.8543245360808</v>
       </c>
       <c r="N45" t="n">
-        <v>34.21620827668154</v>
+        <v>34.21620827668131</v>
       </c>
       <c r="O45" t="n">
-        <v>49.53708892351385</v>
+        <v>49.53708892351365</v>
       </c>
       <c r="P45" t="n">
-        <v>55.62466529233125</v>
+        <v>55.62466529233109</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.15265312299763</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R45" t="n">
         <v>101.057477245434</v>
       </c>
       <c r="S45" t="n">
-        <v>176.410957712603</v>
+        <v>146.0937828749041</v>
       </c>
       <c r="T45" t="n">
         <v>185.6746837770579</v>
       </c>
       <c r="U45" t="n">
-        <v>217.2033884337814</v>
+        <v>216.2915054838979</v>
       </c>
       <c r="V45" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W45" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -30876,52 +30876,52 @@
         <v>135.7331106864345</v>
       </c>
       <c r="J46" t="n">
-        <v>86.66140878686468</v>
+        <v>42.9342950673243</v>
       </c>
       <c r="K46" t="n">
-        <v>77.67194102076732</v>
+        <v>117.3449183783246</v>
       </c>
       <c r="L46" t="n">
-        <v>217.2033884337814</v>
+        <v>74.84944336390259</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24414745277542</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.8233721381562</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.63942497583893</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.5288848663846</v>
+        <v>18.58303897530762</v>
       </c>
       <c r="R46" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S46" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
   </sheetData>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5209871598399992</v>
+        <v>0.5209871598400004</v>
       </c>
       <c r="H17" t="n">
-        <v>5.335559750711393</v>
+        <v>5.335559750711406</v>
       </c>
       <c r="I17" t="n">
-        <v>20.08535747973159</v>
+        <v>20.08535747973163</v>
       </c>
       <c r="J17" t="n">
-        <v>44.21813395747018</v>
+        <v>44.21813395747027</v>
       </c>
       <c r="K17" t="n">
-        <v>66.27152043349736</v>
+        <v>66.2715204334975</v>
       </c>
       <c r="L17" t="n">
-        <v>82.21568122645076</v>
+        <v>82.21568122645094</v>
       </c>
       <c r="M17" t="n">
-        <v>91.48078663025534</v>
+        <v>91.48078663025554</v>
       </c>
       <c r="N17" t="n">
-        <v>92.96104139815074</v>
+        <v>92.96104139815094</v>
       </c>
       <c r="O17" t="n">
-        <v>87.78047532749174</v>
+        <v>87.78047532749194</v>
       </c>
       <c r="P17" t="n">
-        <v>74.91860481894174</v>
+        <v>74.91860481894192</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.26075215717176</v>
+        <v>56.26075215717188</v>
       </c>
       <c r="R17" t="n">
-        <v>32.72645967929938</v>
+        <v>32.72645967929945</v>
       </c>
       <c r="S17" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485402</v>
       </c>
       <c r="T17" t="n">
-        <v>2.280621292199598</v>
+        <v>2.280621292199603</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04167897278719993</v>
+        <v>0.04167897278720002</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.27875270538043</v>
+        <v>0.2787527053804306</v>
       </c>
       <c r="H18" t="n">
-        <v>2.692164286174153</v>
+        <v>2.692164286174159</v>
       </c>
       <c r="I18" t="n">
-        <v>9.597406742264807</v>
+        <v>9.597406742264827</v>
       </c>
       <c r="J18" t="n">
-        <v>26.33601766052563</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K18" t="n">
-        <v>45.01244892101444</v>
+        <v>45.01244892101454</v>
       </c>
       <c r="L18" t="n">
-        <v>60.52479245551837</v>
+        <v>60.52479245551851</v>
       </c>
       <c r="M18" t="n">
-        <v>70.62957802555894</v>
+        <v>70.6295780255591</v>
       </c>
       <c r="N18" t="n">
-        <v>72.49893279102685</v>
+        <v>72.498932791027</v>
       </c>
       <c r="O18" t="n">
-        <v>66.32235968759731</v>
+        <v>66.32235968759746</v>
       </c>
       <c r="P18" t="n">
-        <v>53.22954073181211</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.58253832189489</v>
+        <v>35.58253832189497</v>
       </c>
       <c r="R18" t="n">
-        <v>17.3071197252867</v>
+        <v>17.30711972528674</v>
       </c>
       <c r="S18" t="n">
-        <v>5.177709242482984</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T18" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616735</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0183389937750283</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2336969042806883</v>
+        <v>0.2336969042806888</v>
       </c>
       <c r="H19" t="n">
-        <v>2.077777930786485</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I19" t="n">
-        <v>7.027903266913794</v>
+        <v>7.027903266913809</v>
       </c>
       <c r="J19" t="n">
-        <v>16.52237113264466</v>
+        <v>16.5223711326447</v>
       </c>
       <c r="K19" t="n">
-        <v>27.15133124279269</v>
+        <v>27.15133124279275</v>
       </c>
       <c r="L19" t="n">
-        <v>34.74435611460343</v>
+        <v>34.74435611460351</v>
       </c>
       <c r="M19" t="n">
-        <v>36.63305200465371</v>
+        <v>36.6330520046538</v>
       </c>
       <c r="N19" t="n">
-        <v>35.76199990688027</v>
+        <v>35.76199990688035</v>
       </c>
       <c r="O19" t="n">
-        <v>33.03199516141949</v>
+        <v>33.03199516141956</v>
       </c>
       <c r="P19" t="n">
-        <v>28.26457831409342</v>
+        <v>28.26457831409348</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754023</v>
       </c>
       <c r="R19" t="n">
-        <v>10.5078626233844</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S19" t="n">
-        <v>4.072699686418904</v>
+        <v>4.072699686418913</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9985231364720317</v>
+        <v>0.9985231364720339</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274710386985574</v>
+        <v>0.01274710386985577</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5209871598399988</v>
+        <v>0.5209871598400004</v>
       </c>
       <c r="H32" t="n">
-        <v>5.335559750711389</v>
+        <v>5.335559750711406</v>
       </c>
       <c r="I32" t="n">
-        <v>20.08535747973157</v>
+        <v>20.08535747973163</v>
       </c>
       <c r="J32" t="n">
-        <v>44.21813395747014</v>
+        <v>44.21813395747027</v>
       </c>
       <c r="K32" t="n">
-        <v>66.2715204334973</v>
+        <v>66.2715204334975</v>
       </c>
       <c r="L32" t="n">
-        <v>82.21568122645068</v>
+        <v>82.21568122645094</v>
       </c>
       <c r="M32" t="n">
-        <v>91.48078663025525</v>
+        <v>91.48078663025554</v>
       </c>
       <c r="N32" t="n">
-        <v>92.96104139815066</v>
+        <v>92.96104139815094</v>
       </c>
       <c r="O32" t="n">
-        <v>87.78047532749167</v>
+        <v>87.78047532749194</v>
       </c>
       <c r="P32" t="n">
-        <v>74.91860481894169</v>
+        <v>74.91860481894192</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.26075215717171</v>
+        <v>56.26075215717188</v>
       </c>
       <c r="R32" t="n">
-        <v>32.72645967929935</v>
+        <v>32.72645967929945</v>
       </c>
       <c r="S32" t="n">
-        <v>11.87199490485398</v>
+        <v>11.87199490485402</v>
       </c>
       <c r="T32" t="n">
-        <v>2.280621292199596</v>
+        <v>2.280621292199603</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0416789727871999</v>
+        <v>0.04167897278720002</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2787527053804298</v>
+        <v>0.2787527053804306</v>
       </c>
       <c r="H33" t="n">
-        <v>2.692164286174151</v>
+        <v>2.692164286174159</v>
       </c>
       <c r="I33" t="n">
-        <v>9.597406742264798</v>
+        <v>9.597406742264827</v>
       </c>
       <c r="J33" t="n">
-        <v>26.33601766052561</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K33" t="n">
-        <v>45.0124489210144</v>
+        <v>45.01244892101454</v>
       </c>
       <c r="L33" t="n">
-        <v>60.52479245551832</v>
+        <v>60.52479245551851</v>
       </c>
       <c r="M33" t="n">
-        <v>70.62957802555889</v>
+        <v>70.6295780255591</v>
       </c>
       <c r="N33" t="n">
-        <v>72.49893279102677</v>
+        <v>72.498932791027</v>
       </c>
       <c r="O33" t="n">
-        <v>66.32235968759726</v>
+        <v>66.32235968759746</v>
       </c>
       <c r="P33" t="n">
-        <v>53.22954073181207</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.58253832189487</v>
+        <v>35.58253832189497</v>
       </c>
       <c r="R33" t="n">
-        <v>17.30711972528669</v>
+        <v>17.30711972528674</v>
       </c>
       <c r="S33" t="n">
-        <v>5.17770924248298</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T33" t="n">
-        <v>1.123569018616732</v>
+        <v>1.123569018616735</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01833899377502828</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2336969042806881</v>
+        <v>0.2336969042806888</v>
       </c>
       <c r="H34" t="n">
-        <v>2.077777930786483</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I34" t="n">
-        <v>7.027903266913787</v>
+        <v>7.027903266913809</v>
       </c>
       <c r="J34" t="n">
-        <v>16.52237113264465</v>
+        <v>16.5223711326447</v>
       </c>
       <c r="K34" t="n">
-        <v>27.15133124279267</v>
+        <v>27.15133124279275</v>
       </c>
       <c r="L34" t="n">
-        <v>34.74435611460341</v>
+        <v>34.74435611460351</v>
       </c>
       <c r="M34" t="n">
-        <v>36.63305200465368</v>
+        <v>36.6330520046538</v>
       </c>
       <c r="N34" t="n">
-        <v>35.76199990688024</v>
+        <v>35.76199990688035</v>
       </c>
       <c r="O34" t="n">
-        <v>33.03199516141946</v>
+        <v>33.03199516141956</v>
       </c>
       <c r="P34" t="n">
-        <v>28.2645783140934</v>
+        <v>28.26457831409348</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.56892895754017</v>
+        <v>19.56892895754023</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50786262338439</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S34" t="n">
-        <v>4.0726996864189</v>
+        <v>4.072699686418913</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9985231364720308</v>
+        <v>0.9985231364720339</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01274710386985573</v>
+        <v>0.01274710386985577</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5209871598399988</v>
+        <v>0.5209871598400004</v>
       </c>
       <c r="H35" t="n">
-        <v>5.335559750711389</v>
+        <v>5.335559750711406</v>
       </c>
       <c r="I35" t="n">
-        <v>20.08535747973157</v>
+        <v>20.08535747973163</v>
       </c>
       <c r="J35" t="n">
-        <v>44.21813395747014</v>
+        <v>44.21813395747027</v>
       </c>
       <c r="K35" t="n">
-        <v>66.2715204334973</v>
+        <v>66.2715204334975</v>
       </c>
       <c r="L35" t="n">
-        <v>82.21568122645068</v>
+        <v>82.21568122645094</v>
       </c>
       <c r="M35" t="n">
-        <v>91.48078663025525</v>
+        <v>91.48078663025554</v>
       </c>
       <c r="N35" t="n">
-        <v>92.96104139815066</v>
+        <v>92.96104139815094</v>
       </c>
       <c r="O35" t="n">
-        <v>87.78047532749167</v>
+        <v>87.78047532749194</v>
       </c>
       <c r="P35" t="n">
-        <v>74.91860481894169</v>
+        <v>74.91860481894192</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.26075215717171</v>
+        <v>56.26075215717188</v>
       </c>
       <c r="R35" t="n">
-        <v>32.72645967929935</v>
+        <v>32.72645967929945</v>
       </c>
       <c r="S35" t="n">
-        <v>11.87199490485398</v>
+        <v>11.87199490485402</v>
       </c>
       <c r="T35" t="n">
-        <v>2.280621292199596</v>
+        <v>2.280621292199603</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0416789727871999</v>
+        <v>0.04167897278720002</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2787527053804298</v>
+        <v>0.2787527053804306</v>
       </c>
       <c r="H36" t="n">
-        <v>2.692164286174151</v>
+        <v>2.692164286174159</v>
       </c>
       <c r="I36" t="n">
-        <v>9.597406742264798</v>
+        <v>9.597406742264827</v>
       </c>
       <c r="J36" t="n">
-        <v>26.33601766052561</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K36" t="n">
-        <v>45.0124489210144</v>
+        <v>45.01244892101454</v>
       </c>
       <c r="L36" t="n">
-        <v>60.52479245551832</v>
+        <v>60.52479245551851</v>
       </c>
       <c r="M36" t="n">
-        <v>70.62957802555889</v>
+        <v>70.6295780255591</v>
       </c>
       <c r="N36" t="n">
-        <v>72.49893279102677</v>
+        <v>72.498932791027</v>
       </c>
       <c r="O36" t="n">
-        <v>66.32235968759726</v>
+        <v>66.32235968759746</v>
       </c>
       <c r="P36" t="n">
-        <v>53.22954073181207</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.58253832189487</v>
+        <v>35.58253832189497</v>
       </c>
       <c r="R36" t="n">
-        <v>17.30711972528669</v>
+        <v>17.30711972528674</v>
       </c>
       <c r="S36" t="n">
-        <v>5.17770924248298</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T36" t="n">
-        <v>1.123569018616732</v>
+        <v>1.123569018616735</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01833899377502828</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2336969042806881</v>
+        <v>0.2336969042806888</v>
       </c>
       <c r="H37" t="n">
-        <v>2.077777930786483</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I37" t="n">
-        <v>7.027903266913787</v>
+        <v>7.027903266913809</v>
       </c>
       <c r="J37" t="n">
-        <v>16.52237113264465</v>
+        <v>16.5223711326447</v>
       </c>
       <c r="K37" t="n">
-        <v>27.15133124279267</v>
+        <v>27.15133124279275</v>
       </c>
       <c r="L37" t="n">
-        <v>34.74435611460341</v>
+        <v>34.74435611460351</v>
       </c>
       <c r="M37" t="n">
-        <v>36.63305200465368</v>
+        <v>36.6330520046538</v>
       </c>
       <c r="N37" t="n">
-        <v>35.76199990688024</v>
+        <v>35.76199990688035</v>
       </c>
       <c r="O37" t="n">
-        <v>33.03199516141946</v>
+        <v>33.03199516141956</v>
       </c>
       <c r="P37" t="n">
-        <v>28.2645783140934</v>
+        <v>28.26457831409348</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.56892895754017</v>
+        <v>19.56892895754023</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50786262338439</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S37" t="n">
-        <v>4.0726996864189</v>
+        <v>4.072699686418913</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9985231364720308</v>
+        <v>0.9985231364720339</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01274710386985573</v>
+        <v>0.01274710386985577</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5209871598399988</v>
+        <v>0.5209871598400004</v>
       </c>
       <c r="H38" t="n">
-        <v>5.335559750711389</v>
+        <v>5.335559750711406</v>
       </c>
       <c r="I38" t="n">
-        <v>20.08535747973157</v>
+        <v>20.08535747973163</v>
       </c>
       <c r="J38" t="n">
-        <v>44.21813395747014</v>
+        <v>44.21813395747027</v>
       </c>
       <c r="K38" t="n">
-        <v>66.2715204334973</v>
+        <v>66.2715204334975</v>
       </c>
       <c r="L38" t="n">
-        <v>82.21568122645068</v>
+        <v>82.21568122645094</v>
       </c>
       <c r="M38" t="n">
-        <v>91.48078663025525</v>
+        <v>91.48078663025554</v>
       </c>
       <c r="N38" t="n">
-        <v>92.96104139815066</v>
+        <v>92.96104139815094</v>
       </c>
       <c r="O38" t="n">
-        <v>87.78047532749167</v>
+        <v>87.78047532749194</v>
       </c>
       <c r="P38" t="n">
-        <v>74.91860481894169</v>
+        <v>74.91860481894192</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.26075215717171</v>
+        <v>56.26075215717188</v>
       </c>
       <c r="R38" t="n">
-        <v>32.72645967929935</v>
+        <v>32.72645967929945</v>
       </c>
       <c r="S38" t="n">
-        <v>11.87199490485398</v>
+        <v>11.87199490485402</v>
       </c>
       <c r="T38" t="n">
-        <v>2.280621292199596</v>
+        <v>2.280621292199603</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0416789727871999</v>
+        <v>0.04167897278720002</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2787527053804298</v>
+        <v>0.2787527053804306</v>
       </c>
       <c r="H39" t="n">
-        <v>2.692164286174151</v>
+        <v>2.692164286174159</v>
       </c>
       <c r="I39" t="n">
-        <v>9.597406742264798</v>
+        <v>9.597406742264827</v>
       </c>
       <c r="J39" t="n">
-        <v>26.33601766052561</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K39" t="n">
-        <v>45.0124489210144</v>
+        <v>45.01244892101454</v>
       </c>
       <c r="L39" t="n">
-        <v>60.52479245551832</v>
+        <v>60.52479245551851</v>
       </c>
       <c r="M39" t="n">
-        <v>70.62957802555889</v>
+        <v>70.6295780255591</v>
       </c>
       <c r="N39" t="n">
-        <v>72.49893279102677</v>
+        <v>72.498932791027</v>
       </c>
       <c r="O39" t="n">
-        <v>66.32235968759726</v>
+        <v>66.32235968759746</v>
       </c>
       <c r="P39" t="n">
-        <v>53.22954073181207</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.58253832189487</v>
+        <v>35.58253832189497</v>
       </c>
       <c r="R39" t="n">
-        <v>17.30711972528669</v>
+        <v>17.30711972528674</v>
       </c>
       <c r="S39" t="n">
-        <v>5.17770924248298</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T39" t="n">
-        <v>1.123569018616732</v>
+        <v>1.123569018616735</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01833899377502828</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2336969042806881</v>
+        <v>0.2336969042806888</v>
       </c>
       <c r="H40" t="n">
-        <v>2.077777930786483</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I40" t="n">
-        <v>7.027903266913787</v>
+        <v>7.027903266913809</v>
       </c>
       <c r="J40" t="n">
-        <v>16.52237113264465</v>
+        <v>16.5223711326447</v>
       </c>
       <c r="K40" t="n">
-        <v>27.15133124279267</v>
+        <v>27.15133124279275</v>
       </c>
       <c r="L40" t="n">
-        <v>34.74435611460341</v>
+        <v>34.74435611460351</v>
       </c>
       <c r="M40" t="n">
-        <v>36.63305200465368</v>
+        <v>36.6330520046538</v>
       </c>
       <c r="N40" t="n">
-        <v>35.76199990688024</v>
+        <v>35.76199990688035</v>
       </c>
       <c r="O40" t="n">
-        <v>33.03199516141946</v>
+        <v>33.03199516141956</v>
       </c>
       <c r="P40" t="n">
-        <v>28.2645783140934</v>
+        <v>28.26457831409348</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.56892895754017</v>
+        <v>19.56892895754023</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50786262338439</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S40" t="n">
-        <v>4.0726996864189</v>
+        <v>4.072699686418913</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9985231364720308</v>
+        <v>0.9985231364720339</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01274710386985573</v>
+        <v>0.01274710386985577</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5209871598399988</v>
+        <v>0.5209871598400004</v>
       </c>
       <c r="H41" t="n">
-        <v>5.335559750711389</v>
+        <v>5.335559750711406</v>
       </c>
       <c r="I41" t="n">
-        <v>20.08535747973157</v>
+        <v>20.08535747973163</v>
       </c>
       <c r="J41" t="n">
-        <v>44.21813395747014</v>
+        <v>44.21813395747027</v>
       </c>
       <c r="K41" t="n">
-        <v>66.2715204334973</v>
+        <v>66.2715204334975</v>
       </c>
       <c r="L41" t="n">
-        <v>82.21568122645068</v>
+        <v>82.21568122645094</v>
       </c>
       <c r="M41" t="n">
-        <v>91.48078663025525</v>
+        <v>91.48078663025554</v>
       </c>
       <c r="N41" t="n">
-        <v>92.96104139815066</v>
+        <v>92.96104139815094</v>
       </c>
       <c r="O41" t="n">
-        <v>87.78047532749167</v>
+        <v>87.78047532749194</v>
       </c>
       <c r="P41" t="n">
-        <v>74.91860481894169</v>
+        <v>74.91860481894192</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.26075215717171</v>
+        <v>56.26075215717188</v>
       </c>
       <c r="R41" t="n">
-        <v>32.72645967929935</v>
+        <v>32.72645967929945</v>
       </c>
       <c r="S41" t="n">
-        <v>11.87199490485398</v>
+        <v>11.87199490485402</v>
       </c>
       <c r="T41" t="n">
-        <v>2.280621292199596</v>
+        <v>2.280621292199603</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0416789727871999</v>
+        <v>0.04167897278720002</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2787527053804298</v>
+        <v>0.2787527053804306</v>
       </c>
       <c r="H42" t="n">
-        <v>2.692164286174151</v>
+        <v>2.692164286174159</v>
       </c>
       <c r="I42" t="n">
-        <v>9.597406742264798</v>
+        <v>9.597406742264827</v>
       </c>
       <c r="J42" t="n">
-        <v>26.33601766052561</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K42" t="n">
-        <v>45.0124489210144</v>
+        <v>45.01244892101454</v>
       </c>
       <c r="L42" t="n">
-        <v>60.52479245551832</v>
+        <v>60.52479245551851</v>
       </c>
       <c r="M42" t="n">
-        <v>70.62957802555889</v>
+        <v>70.6295780255591</v>
       </c>
       <c r="N42" t="n">
-        <v>72.49893279102677</v>
+        <v>72.498932791027</v>
       </c>
       <c r="O42" t="n">
-        <v>66.32235968759726</v>
+        <v>66.32235968759746</v>
       </c>
       <c r="P42" t="n">
-        <v>53.22954073181207</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.58253832189487</v>
+        <v>35.58253832189497</v>
       </c>
       <c r="R42" t="n">
-        <v>17.30711972528669</v>
+        <v>17.30711972528674</v>
       </c>
       <c r="S42" t="n">
-        <v>5.17770924248298</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T42" t="n">
-        <v>1.123569018616732</v>
+        <v>1.123569018616735</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01833899377502828</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2336969042806881</v>
+        <v>0.2336969042806888</v>
       </c>
       <c r="H43" t="n">
-        <v>2.077777930786483</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I43" t="n">
-        <v>7.027903266913787</v>
+        <v>7.027903266913809</v>
       </c>
       <c r="J43" t="n">
-        <v>16.52237113264465</v>
+        <v>16.5223711326447</v>
       </c>
       <c r="K43" t="n">
-        <v>27.15133124279267</v>
+        <v>27.15133124279275</v>
       </c>
       <c r="L43" t="n">
-        <v>34.74435611460341</v>
+        <v>34.74435611460351</v>
       </c>
       <c r="M43" t="n">
-        <v>36.63305200465368</v>
+        <v>36.6330520046538</v>
       </c>
       <c r="N43" t="n">
-        <v>35.76199990688024</v>
+        <v>35.76199990688035</v>
       </c>
       <c r="O43" t="n">
-        <v>33.03199516141946</v>
+        <v>33.03199516141956</v>
       </c>
       <c r="P43" t="n">
-        <v>28.2645783140934</v>
+        <v>28.26457831409348</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.56892895754017</v>
+        <v>19.56892895754023</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50786262338439</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S43" t="n">
-        <v>4.0726996864189</v>
+        <v>4.072699686418913</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9985231364720308</v>
+        <v>0.9985231364720339</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01274710386985573</v>
+        <v>0.01274710386985577</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5209871598399988</v>
+        <v>0.5209871598400004</v>
       </c>
       <c r="H44" t="n">
-        <v>5.335559750711389</v>
+        <v>5.335559750711406</v>
       </c>
       <c r="I44" t="n">
-        <v>20.08535747973157</v>
+        <v>20.08535747973163</v>
       </c>
       <c r="J44" t="n">
-        <v>44.21813395747014</v>
+        <v>44.21813395747027</v>
       </c>
       <c r="K44" t="n">
-        <v>66.2715204334973</v>
+        <v>66.2715204334975</v>
       </c>
       <c r="L44" t="n">
-        <v>82.21568122645068</v>
+        <v>82.21568122645094</v>
       </c>
       <c r="M44" t="n">
-        <v>91.48078663025525</v>
+        <v>91.48078663025554</v>
       </c>
       <c r="N44" t="n">
-        <v>92.96104139815066</v>
+        <v>92.96104139815094</v>
       </c>
       <c r="O44" t="n">
-        <v>87.78047532749167</v>
+        <v>87.78047532749194</v>
       </c>
       <c r="P44" t="n">
-        <v>74.91860481894169</v>
+        <v>74.91860481894192</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.26075215717171</v>
+        <v>56.26075215717188</v>
       </c>
       <c r="R44" t="n">
-        <v>32.72645967929935</v>
+        <v>32.72645967929945</v>
       </c>
       <c r="S44" t="n">
-        <v>11.87199490485398</v>
+        <v>11.87199490485402</v>
       </c>
       <c r="T44" t="n">
-        <v>2.280621292199596</v>
+        <v>2.280621292199603</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0416789727871999</v>
+        <v>0.04167897278720002</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2787527053804298</v>
+        <v>0.2787527053804306</v>
       </c>
       <c r="H45" t="n">
-        <v>2.692164286174151</v>
+        <v>2.692164286174159</v>
       </c>
       <c r="I45" t="n">
-        <v>9.597406742264798</v>
+        <v>9.597406742264827</v>
       </c>
       <c r="J45" t="n">
-        <v>26.33601766052561</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K45" t="n">
-        <v>45.0124489210144</v>
+        <v>45.01244892101454</v>
       </c>
       <c r="L45" t="n">
-        <v>60.52479245551832</v>
+        <v>60.52479245551851</v>
       </c>
       <c r="M45" t="n">
-        <v>70.62957802555889</v>
+        <v>70.6295780255591</v>
       </c>
       <c r="N45" t="n">
-        <v>72.49893279102677</v>
+        <v>72.498932791027</v>
       </c>
       <c r="O45" t="n">
-        <v>66.32235968759726</v>
+        <v>66.32235968759746</v>
       </c>
       <c r="P45" t="n">
-        <v>53.22954073181207</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.58253832189487</v>
+        <v>35.58253832189497</v>
       </c>
       <c r="R45" t="n">
-        <v>17.30711972528669</v>
+        <v>17.30711972528674</v>
       </c>
       <c r="S45" t="n">
-        <v>5.17770924248298</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T45" t="n">
-        <v>1.123569018616732</v>
+        <v>1.123569018616735</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01833899377502828</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2336969042806881</v>
+        <v>0.2336969042806888</v>
       </c>
       <c r="H46" t="n">
-        <v>2.077777930786483</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I46" t="n">
-        <v>7.027903266913787</v>
+        <v>7.027903266913809</v>
       </c>
       <c r="J46" t="n">
-        <v>16.52237113264465</v>
+        <v>16.5223711326447</v>
       </c>
       <c r="K46" t="n">
-        <v>27.15133124279267</v>
+        <v>27.15133124279275</v>
       </c>
       <c r="L46" t="n">
-        <v>34.74435611460341</v>
+        <v>34.74435611460351</v>
       </c>
       <c r="M46" t="n">
-        <v>36.63305200465368</v>
+        <v>36.6330520046538</v>
       </c>
       <c r="N46" t="n">
-        <v>35.76199990688024</v>
+        <v>35.76199990688035</v>
       </c>
       <c r="O46" t="n">
-        <v>33.03199516141946</v>
+        <v>33.03199516141956</v>
       </c>
       <c r="P46" t="n">
-        <v>28.2645783140934</v>
+        <v>28.26457831409348</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.56892895754017</v>
+        <v>19.56892895754023</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50786262338439</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S46" t="n">
-        <v>4.0726996864189</v>
+        <v>4.072699686418913</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9985231364720308</v>
+        <v>0.9985231364720339</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01274710386985573</v>
+        <v>0.01274710386985577</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.57089352680646</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.6928993799044</v>
+        <v>67.26646484471702</v>
       </c>
       <c r="K11" t="n">
-        <v>103.0230793098175</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>106.2300319137031</v>
+        <v>106.2300319137027</v>
       </c>
       <c r="M11" t="n">
-        <v>76.96559133043031</v>
+        <v>119.8990349834628</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>122.1374900762872</v>
       </c>
       <c r="O11" t="n">
-        <v>116.4002413977382</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.21194198454799</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.13777305568344</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35471,7 +35471,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>35.28435194160933</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>35.28435194160804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64.03338860985144</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.08563875407199</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.87342201263392</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>83.23105840532806</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9351378745278</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>26.17374690330117</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,34 +35644,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.6928993799044</v>
+        <v>112.6928993799041</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>103.0230793098172</v>
       </c>
       <c r="L14" t="n">
-        <v>106.2300319137031</v>
+        <v>77.67955305216083</v>
       </c>
       <c r="M14" t="n">
-        <v>99.85333340963093</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>122.1374900762872</v>
       </c>
       <c r="O14" t="n">
-        <v>116.4002413977382</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>102.6163586181522</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.21194198454808</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.13777305568352</v>
       </c>
       <c r="S14" t="n">
-        <v>42.08987213927121</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>35.28435194160804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>35.28435194160907</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>9.355438039319301</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>65.08563875407242</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>140.7251194864642</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>136.1106205196637</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.05557576019424</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>68.67010816880428</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>140.5328061263982</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="N17" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="R17" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>71.8626979575937</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.21003973254496</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,13 +36130,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>140.5328061263982</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,10 +36145,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>68.67010816880459</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>146.4499769106676</v>
-      </c>
-      <c r="K23" t="n">
-        <v>68.67010816880448</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36373,16 +36373,16 @@
         <v>146.4499769106676</v>
       </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>146.4499769106676</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>70.60302724063324</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>482.3222435130605</v>
+        <v>355.8877202071677</v>
       </c>
       <c r="L26" t="n">
-        <v>64.14015977443192</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>454.7958969202397</v>
+        <v>77.80916284419202</v>
       </c>
       <c r="N26" t="n">
-        <v>605.7782291286876</v>
+        <v>475.1139289615002</v>
       </c>
       <c r="O26" t="n">
         <v>569.3506049000359</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>478.8648071018084</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.6468669920577</v>
+        <v>325.1315577031532</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36665,7 +36665,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>77.23837611850082</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>139.6847467541193</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>216.9231228726202</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.565958103553651</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>95.81274969032833</v>
       </c>
       <c r="L28" t="n">
-        <v>309.8523593512137</v>
+        <v>98.63524734719297</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>105.502185739974</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>94.02074838039289</v>
+        <v>285.5272647748985</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>35.96598976271443</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9439362532336</v>
+        <v>290.4286269643291</v>
       </c>
       <c r="K29" t="n">
-        <v>395.522216504701</v>
+        <v>482.3222435130605</v>
       </c>
       <c r="L29" t="n">
-        <v>605.7782291286876</v>
+        <v>605.7782291286877</v>
       </c>
       <c r="M29" t="n">
-        <v>77.80916284419204</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>154.3680717364882</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>569.3506049000359</v>
+        <v>273.1170080179146</v>
       </c>
       <c r="P29" t="n">
-        <v>478.8648071018084</v>
+        <v>305.3801163907128</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>325.1315577031532</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36896,13 +36896,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>11.05438057910514</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>77.23837611850074</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>92.97552108503815</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>128.6303661750147</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>123.9476017875819</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36969,49 +36969,49 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.9435164705807</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22.99576661480125</v>
+        <v>22.99576661480117</v>
       </c>
       <c r="F31" t="n">
-        <v>22.52884228661495</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.487836469547799</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>37.75158002466115</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>86.82328192423088</v>
       </c>
       <c r="K31" t="n">
-        <v>61.09495522728105</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>98.635247347193</v>
+        <v>98.63524734719292</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>76.04729342679535</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>132.4902239449445</v>
+        <v>217.6416899536532</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>89.84526573525658</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.96598976271446</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>290.428626964329</v>
       </c>
       <c r="K32" t="n">
-        <v>482.3222435130603</v>
+        <v>60.93320717054624</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>536.3758770596392</v>
       </c>
       <c r="M32" t="n">
-        <v>488.6920656737784</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>80.04761793701613</v>
+        <v>605.7782291286877</v>
       </c>
       <c r="O32" t="n">
-        <v>569.3506049000357</v>
+        <v>101.124723340984</v>
       </c>
       <c r="P32" t="n">
-        <v>478.8648071018082</v>
+        <v>478.8648071018083</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.3596893434477</v>
+        <v>325.1315577031531</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>92.97552108503837</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>128.6303661750147</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>123.9476017875817</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>15.8655432319448</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>72.42721346566147</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.564880868159094</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.9435164705807</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,40 +37215,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.487836469547798</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>17.78354987336317</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>130.5503956437713</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>136.367668640118</v>
+        <v>205.6590729126687</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>155.3805269266786</v>
+        <v>155.3805269266787</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.89688692020119</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>154.9016517357879</v>
       </c>
       <c r="R34" t="n">
-        <v>35.96598976271442</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>66.19971911022131</v>
       </c>
       <c r="J35" t="n">
-        <v>114.321724963319</v>
+        <v>114.3217249633193</v>
       </c>
       <c r="K35" t="n">
-        <v>104.651904893232</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="L35" t="n">
-        <v>107.8588574971175</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M35" t="n">
-        <v>459.3282522180203</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="N35" t="n">
-        <v>308.8221711454958</v>
+        <v>244.5592427546162</v>
       </c>
       <c r="O35" t="n">
-        <v>459.3282522180203</v>
+        <v>118.0290669811531</v>
       </c>
       <c r="P35" t="n">
-        <v>104.2451842015666</v>
+        <v>104.245184201567</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>26.39869530492666</v>
       </c>
       <c r="R35" t="n">
-        <v>160.1979444739756</v>
+        <v>74.76659863909872</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>43.71869772268606</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37376,7 +37376,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>31.22905778758242</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>30.31717483769837</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37415,7 +37415,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.911882949883715</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.48357343624542</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.53214810605468</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37470,25 +37470,25 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>140.9592409810063</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>137.7394461030786</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.97179269758919</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.703423149851217</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>66.19971911022124</v>
+        <v>66.19971911022131</v>
       </c>
       <c r="J38" t="n">
-        <v>114.3217249633191</v>
+        <v>334.1473246870152</v>
       </c>
       <c r="K38" t="n">
-        <v>104.6519048932322</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L38" t="n">
-        <v>107.8588574971177</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="M38" t="n">
-        <v>239.3362902878184</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>459.3282522180203</v>
+        <v>123.7663156597024</v>
       </c>
       <c r="O38" t="n">
-        <v>459.3282522180203</v>
+        <v>134.7730575338856</v>
       </c>
       <c r="P38" t="n">
-        <v>104.2451842015668</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.99880985964631</v>
+        <v>92.84076756796327</v>
       </c>
       <c r="R38" t="n">
-        <v>74.76659863909862</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>43.71869772268602</v>
+        <v>43.71869772268606</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>31.22905778758208</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>31.22905778758207</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37695,10 +37695,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.92742562911828</v>
       </c>
       <c r="J40" t="n">
-        <v>130.5419796469169</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>74.65283258999531</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>133.5639634579427</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.703423149851217</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>66.19971911022131</v>
       </c>
       <c r="J41" t="n">
-        <v>326.8642986780332</v>
+        <v>114.3217249633193</v>
       </c>
       <c r="K41" t="n">
-        <v>104.651904893232</v>
+        <v>276.6251060145971</v>
       </c>
       <c r="L41" t="n">
-        <v>107.8588574971175</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M41" t="n">
-        <v>121.5278605668776</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="N41" t="n">
-        <v>123.766315659702</v>
+        <v>123.7663156597024</v>
       </c>
       <c r="O41" t="n">
-        <v>459.3282522180203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>104.2451842015666</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="Q41" t="n">
-        <v>352.0263215344137</v>
+        <v>92.84076756796327</v>
       </c>
       <c r="R41" t="n">
-        <v>74.76659863909845</v>
+        <v>74.76659863909872</v>
       </c>
       <c r="S41" t="n">
-        <v>43.71869772268585</v>
+        <v>43.71869772268606</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>31.22905778758242</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>31.22905778758208</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>67.4553661338346</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>137.7394461030786</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>11.83562118411464</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>113.6745035673971</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>79.68468748540047</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.19971911022107</v>
+        <v>66.19971911022125</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>114.3217249633192</v>
       </c>
       <c r="K44" t="n">
-        <v>104.651904893232</v>
+        <v>104.6519048932323</v>
       </c>
       <c r="L44" t="n">
-        <v>399.7844623598957</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M44" t="n">
-        <v>121.5278605668776</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="N44" t="n">
-        <v>123.766315659702</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>459.3282522180203</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="P44" t="n">
-        <v>459.3282522180203</v>
+        <v>104.245184201567</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.400925945679717</v>
+        <v>321.9642277535952</v>
       </c>
       <c r="R44" t="n">
-        <v>74.76659863909845</v>
+        <v>37.1374710329671</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>43.718697722686</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.22905778758219</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38120,13 +38120,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>30.31717483769888</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9118829498835443</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>39.67297735755735</v>
       </c>
       <c r="L46" t="n">
-        <v>142.3539450698788</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>155.818411729504</v>
       </c>
       <c r="N46" t="n">
-        <v>62.8408671670345</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.70342314985116</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
